--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80D9E65-B053-4EE7-8259-C64B5EFE2D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4DC5D-C887-46AC-AA7F-0F5E3CE27C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="3588" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -205,6 +205,57 @@
   </si>
   <si>
     <t>PlayAudio_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>canHitAfterCreated</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多久后才会计算攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletTrig</t>
+  </si>
+  <si>
+    <t>action_id</t>
+  </si>
+  <si>
+    <t>actionCallParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象选择器参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallCasterUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnHitUnit</t>
+  </si>
+  <si>
+    <t>ActionCallBeHurtUnit</t>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,6 +372,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -333,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -354,6 +431,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -631,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -644,11 +730,14 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="9" width="13.77734375" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="12" max="14" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,18 +756,20 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -687,8 +778,11 @@
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,11 +794,17 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="13"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -713,38 +813,31 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -753,26 +846,43 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -781,36 +891,33 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -819,93 +926,175 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+      <c r="D7" t="str">
+        <f>B7&amp;"_"&amp;C7</f>
         <v>Bullet_1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="M10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D9" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
+      <c r="D11" t="str">
+        <f>B11&amp;"_"&amp;C11</f>
         <v>Bullet_2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J11" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
+  <mergeCells count="3">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4DC5D-C887-46AC-AA7F-0F5E3CE27C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90AA06F-D982-4525-A1BB-334EDC7F63D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -410,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -419,6 +419,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,9 +439,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -717,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -764,12 +763,12 @@
       <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -801,10 +800,10 @@
       <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="15"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -832,10 +831,10 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="O3"/>
@@ -877,12 +876,12 @@
       <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1057,7 +1056,7 @@
       <c r="L10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="N10" s="6"/>
@@ -1084,10 +1083,52 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90AA06F-D982-4525-A1BB-334EDC7F63D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E262253-C5C4-45E7-88AD-2812B563FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -994,7 +994,7 @@
         <v>0.1</v>
       </c>
       <c r="I7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E262253-C5C4-45E7-88AD-2812B563FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEED7D2-DAF9-498F-A5A5-FBD1B73C1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEED7D2-DAF9-498F-A5A5-FBD1B73C1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECCA75-2F7A-4C5F-9C97-7B5E6CD7075F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -143,9 +143,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ResUnit_1</t>
-  </si>
-  <si>
     <t>string#ref=ResUnitCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,9 +158,6 @@
     <t>子弹2</t>
   </si>
   <si>
-    <t>ResUnit_2</t>
-  </si>
-  <si>
     <t>hitTimes</t>
   </si>
   <si>
@@ -256,6 +250,21 @@
   </si>
   <si>
     <t>ActionCallAutoSelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEffect_3</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -755,16 +764,16 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -795,13 +804,13 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2"/>
@@ -832,10 +841,10 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -865,19 +874,19 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -912,10 +921,10 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -948,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -974,7 +983,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -984,11 +993,11 @@
         <v>Bullet_1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -1000,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7" s="6"/>
     </row>
@@ -1017,13 +1026,13 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N8" s="6"/>
     </row>
@@ -1034,13 +1043,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" s="6"/>
     </row>
@@ -1051,19 +1060,19 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1073,11 +1082,11 @@
         <v>Bullet_2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" t="s">
-        <v>20</v>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -1089,46 +1098,146 @@
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f>B15&amp;"_"&amp;C15</f>
+        <v>Bullet_3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECCA75-2F7A-4C5F-9C97-7B5E6CD7075F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FF500-B40C-42CA-AD9D-EBCB0E65A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -243,9 +243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCallOnHitUnit</t>
-  </si>
-  <si>
     <t>ActionCallBeHurtUnit</t>
   </si>
   <si>
@@ -266,6 +263,16 @@
   <si>
     <t>ResUnit_Bullet3</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAttackUnit</t>
+  </si>
+  <si>
+    <t>CreateEffect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallCasterPlayerUnit</t>
   </si>
 </sst>
 </file>
@@ -725,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -997,7 +1004,7 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -1012,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>41</v>
@@ -1032,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N8" s="6"/>
     </row>
@@ -1049,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="6"/>
     </row>
@@ -1066,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" s="6"/>
     </row>
@@ -1086,7 +1093,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -1115,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -1126,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1137,7 +1144,7 @@
         <v>30</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1156,7 +1163,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>0.1</v>
@@ -1171,10 +1178,10 @@
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N15" s="6"/>
     </row>
@@ -1185,13 +1192,13 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N16" s="6"/>
     </row>
@@ -1205,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>42</v>
@@ -1219,7 +1226,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>30</v>
@@ -1228,17 +1235,6 @@
         <v>43</v>
       </c>
       <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FF500-B40C-42CA-AD9D-EBCB0E65A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7261F8-48A5-4B98-8B6C-E31FDB9C9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -273,6 +273,75 @@
   </si>
   <si>
     <t>ActionCallCasterPlayerUnit</t>
+  </si>
+  <si>
+    <t>CreateEffect_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟多久后触发action</t>
+  </si>
+  <si>
+    <t>delayTime</t>
+  </si>
+  <si>
+    <t>actionCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketProjectile_1</t>
+  </si>
+  <si>
+    <t>ResUnit_BulletRocketProjectile_1</t>
+  </si>
+  <si>
+    <t>AttackArea_Bullet1</t>
+  </si>
+  <si>
+    <t>AttackArea_Bullet1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyRadius</t>
+  </si>
+  <si>
+    <t>身体半径(判断伤害什么的)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源大小缩放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resScale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_DeathShowCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathShow_Null</t>
   </si>
 </sst>
 </file>
@@ -426,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -455,6 +524,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -732,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -745,14 +816,14 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
-    <col min="12" max="14" width="19.5546875" customWidth="1"/>
+    <col min="7" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="15" width="20.5546875" customWidth="1"/>
+    <col min="16" max="20" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,33 +842,45 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -810,29 +893,41 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="T2" s="15"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,25 +942,31 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -887,30 +988,42 @@
         <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -927,25 +1040,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -964,31 +1079,53 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="7"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="O6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1006,78 +1143,110 @@
       <c r="G7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>0.1</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1095,59 +1264,88 @@
       <c r="G11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>0.1</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K12" s="6" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K13" s="6" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K14" s="6" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1165,82 +1363,281 @@
       <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>0.1</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="str">
+        <f>B21&amp;"_"&amp;C21</f>
+        <v>Bullet_RocketProjectile_1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7261F8-48A5-4B98-8B6C-E31FDB9C9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B29DDB-38B8-48FE-803D-F7F72C9111D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -268,13 +268,6 @@
     <t>ActionCallOnAttackUnit</t>
   </si>
   <si>
-    <t>CreateEffect_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallCasterPlayerUnit</t>
-  </si>
-  <si>
     <t>CreateEffect_4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -342,6 +335,36 @@
   </si>
   <si>
     <t>DeathShow_Null</t>
+  </si>
+  <si>
+    <t>PlayerSolo1</t>
+  </si>
+  <si>
+    <t>PlayerAoe1</t>
+  </si>
+  <si>
+    <t>EnemySolo1</t>
+  </si>
+  <si>
+    <t>机枪子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe1</t>
+  </si>
+  <si>
+    <t>AttackArea_EnemySolo1</t>
   </si>
 </sst>
 </file>
@@ -495,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -506,6 +529,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,8 +552,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -803,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -819,8 +845,12 @@
     <col min="7" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" customWidth="1"/>
     <col min="12" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="15" width="20.5546875" customWidth="1"/>
-    <col min="16" max="20" width="19.5546875" customWidth="1"/>
+    <col min="14" max="15" width="20.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="25.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -842,10 +872,10 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>31</v>
@@ -856,18 +886,18 @@
       <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -900,21 +930,21 @@
         <v>34</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="15"/>
+      <c r="T2" s="18"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -999,18 +1029,18 @@
       <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -1079,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>33</v>
@@ -1094,18 +1124,18 @@
         <v>24</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>39</v>
@@ -1159,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>25</v>
@@ -1214,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1244,7 +1274,9 @@
       <c r="S10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="6"/>
+      <c r="T10" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -1280,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>25</v>
@@ -1296,6 +1328,7 @@
       <c r="S11" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N12" s="6" t="s">
@@ -1312,6 +1345,7 @@
       <c r="S12" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N13" s="6" t="s">
@@ -1328,6 +1362,7 @@
       <c r="S13" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N14" s="6" t="s">
@@ -1344,6 +1379,9 @@
       <c r="S14" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="T14" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -1379,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>25</v>
@@ -1395,7 +1433,9 @@
       <c r="S15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
@@ -1416,7 +1456,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="T16" s="6"/>
     </row>
@@ -1434,9 +1474,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="6"/>
+        <v>58</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6" t="s">
         <v>42</v>
@@ -1451,93 +1490,96 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O18" s="6">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="6"/>
+        <v>30</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T19" s="6"/>
+      <c r="T18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="str">
+        <f>B20&amp;"_"&amp;C20</f>
+        <v>Bullet_RocketProjectile_1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="str">
-        <f>B21&amp;"_"&amp;C21</f>
-        <v>Bullet_RocketProjectile_1</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" s="6">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T21" s="6"/>
     </row>
@@ -1555,12 +1597,12 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="T22" s="6"/>
     </row>
@@ -1572,53 +1614,83 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" s="6">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T23" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="T23" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="str">
+        <f>B24&amp;"_"&amp;C24</f>
+        <v>Bullet_PlayerSolo1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="N24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24" s="6">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T24" s="6"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O25" s="6">
         <v>0</v>
@@ -1629,9 +1701,298 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="6"/>
+      <c r="T27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="str">
+        <f>B28&amp;"_"&amp;C28</f>
+        <v>Bullet_PlayerAoe1</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="str">
+        <f>B32&amp;"_"&amp;C32</f>
+        <v>Bullet_EnemySolo1</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B29DDB-38B8-48FE-803D-F7F72C9111D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AE006-6F88-475B-83B6-08EADA3043A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,9 +250,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CreateEffect_3</t>
-  </si>
-  <si>
     <t>ResUnit_Bullet1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -268,10 +265,6 @@
     <t>ActionCallOnAttackUnit</t>
   </si>
   <si>
-    <t>CreateEffect_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟多久后触发action</t>
   </si>
   <si>
@@ -365,6 +358,12 @@
   </si>
   <si>
     <t>AttackArea_EnemySolo1</t>
+  </si>
+  <si>
+    <t>EffectCreate_3</t>
+  </si>
+  <si>
+    <t>EffectCreate_4</t>
   </si>
 </sst>
 </file>
@@ -831,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -872,10 +871,10 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>31</v>
@@ -887,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>29</v>
@@ -930,16 +929,16 @@
         <v>34</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>36</v>
@@ -1030,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>28</v>
@@ -1109,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>33</v>
@@ -1124,18 +1123,18 @@
         <v>24</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>39</v>
@@ -1171,7 +1170,7 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6">
         <v>0.1</v>
@@ -1189,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>25</v>
@@ -1198,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1226,7 +1225,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T8" s="6"/>
     </row>
@@ -1244,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1294,7 +1293,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="6">
         <v>0.1</v>
@@ -1312,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>25</v>
@@ -1343,7 +1342,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T12" s="6"/>
     </row>
@@ -1399,7 +1398,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="6">
         <v>0.1</v>
@@ -1417,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>25</v>
@@ -1426,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -1451,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -1474,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6" t="s">
@@ -1511,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="str">
         <f>B20&amp;"_"&amp;C20</f>
@@ -1522,7 +1521,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20" s="6">
         <v>0.1</v>
@@ -1540,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>25</v>
@@ -1549,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -1574,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -1597,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -1636,18 +1635,18 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" t="str">
         <f>B24&amp;"_"&amp;C24</f>
         <v>Bullet_PlayerSolo1</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="6">
         <v>0.1</v>
@@ -1665,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>25</v>
@@ -1674,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -1701,7 +1700,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T25" s="6"/>
     </row>
@@ -1718,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -1757,18 +1756,18 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" t="str">
         <f>B28&amp;"_"&amp;C28</f>
         <v>Bullet_PlayerAoe1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="6">
         <v>0.1</v>
@@ -1786,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>25</v>
@@ -1795,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -1822,7 +1821,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T29" s="6"/>
     </row>
@@ -1839,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -1878,18 +1877,18 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" t="str">
         <f>B32&amp;"_"&amp;C32</f>
         <v>Bullet_EnemySolo1</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="6">
         <v>0.1</v>
@@ -1907,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>25</v>
@@ -1916,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -1943,7 +1942,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T33" s="6"/>
     </row>
@@ -1960,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AE006-6F88-475B-83B6-08EADA3043A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F79DC8-2154-46ED-8F9F-7DCB642D7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
   <si>
     <t>##var</t>
   </si>
@@ -365,12 +354,386 @@
   <si>
     <t>EffectCreate_4</t>
   </si>
+  <si>
+    <t>idle_timeline_id</t>
+  </si>
+  <si>
+    <t>string#ref=TimelineCfgCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Idle1</t>
+  </si>
+  <si>
+    <t>Tower_Cannon_Bullet_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮弹1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Canon_Bullet_1</t>
+  </si>
+  <si>
+    <t>rotationSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转身速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体高度(判断位置，判断伤害什么的)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Cannon_Hit_1</t>
+  </si>
+  <si>
+    <t>弩箭炮弹1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Arrow_Bullet_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_ArrowSolo_Bullet_1</t>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_Hit_1</t>
+  </si>
+  <si>
+    <t>Tower_Arrow_Bullet_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Arrow_Bullet_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭炮弹2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭炮弹3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_ArrowSolo_Bullet_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_ArrowSolo_Bullet_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSolo2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSolo3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_Hit_2</t>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_Hit_3</t>
+  </si>
+  <si>
+    <t>Tower_Cannon_Bullet_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Cannon_Bullet_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮弹2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮弹3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Canon_Bullet_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Canon_Bullet_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe2</t>
+  </si>
+  <si>
+    <t>EffectCreate_Cannon_Hit_2</t>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe3</t>
+  </si>
+  <si>
+    <t>EffectCreate_Cannon_Hit_3</t>
+  </si>
+  <si>
+    <t>isNeedChkMesh</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否需要检测Mesh(移动时)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮1子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet1</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerDragon_Bullet1</t>
+  </si>
+  <si>
+    <r>
+      <t>TowerDragon_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TowerDragon_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮2子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮3子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_TowerDragon_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_TowerDragon_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerDragon_Hit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_TowerDragon_Hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_TowerDragon_Hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_TowerIce_Bullet1</t>
+  </si>
+  <si>
+    <t>冰魔炮弹1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIce_Bullet1</t>
+  </si>
+  <si>
+    <t>AttackArea_SlowAoe1</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerIce_Hit1</t>
+  </si>
+  <si>
+    <r>
+      <t>TowerIce_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TowerIce_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔炮弹2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔炮弹3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_TowerIce_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_TowerIce_Bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_SlowAoe2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerIce_Hit2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_SlowAoe3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerIce_Hit3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +773,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -517,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -533,6 +905,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,31 +1201,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="15" width="20.44140625" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="25.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="19" width="20.5" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="16.875" customWidth="1"/>
+    <col min="22" max="22" width="8.625" customWidth="1"/>
+    <col min="23" max="23" width="25.75" customWidth="1"/>
+    <col min="24" max="24" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -871,36 +1246,44 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
@@ -908,8 +1291,12 @@
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -925,29 +1312,29 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="W2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
+      <c r="X2" s="19"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -955,8 +1342,12 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+    </row>
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -966,27 +1357,24 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -994,8 +1382,12 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+    </row>
+    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1017,33 +1409,41 @@
         <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="Q4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -1051,8 +1451,12 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+    </row>
+    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1077,10 +1481,10 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
@@ -1088,8 +1492,12 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,44 +1516,52 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
@@ -1153,8 +1569,12 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1173,111 +1593,132 @@
         <v>44</v>
       </c>
       <c r="H7" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.1</v>
       </c>
       <c r="K7" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6" t="s">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6" t="s">
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1296,93 +1737,111 @@
         <v>45</v>
       </c>
       <c r="H11" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>0.1</v>
       </c>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6" t="s">
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6" t="s">
+      <c r="X11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6" t="s">
+      <c r="X12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6" t="s">
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N14" s="6" t="s">
+      <c r="X13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6" t="s">
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6" t="s">
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1401,111 +1860,130 @@
         <v>46</v>
       </c>
       <c r="H15" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
         <v>0.1</v>
       </c>
       <c r="K15" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6" t="s">
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6" t="s">
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6" t="s">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6" t="s">
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6" t="s">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6" t="s">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6" t="s">
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
@@ -1524,113 +2002,132 @@
         <v>55</v>
       </c>
       <c r="H20" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
         <v>0.1</v>
       </c>
       <c r="K20" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6" t="s">
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6" t="s">
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6" t="s">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6" t="s">
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6" t="s">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6" t="s">
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6" t="s">
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -1649,109 +2146,130 @@
         <v>44</v>
       </c>
       <c r="H24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
         <v>0.1</v>
       </c>
       <c r="K24" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24">
+        <v>0.1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6" t="s">
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6" t="s">
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6" t="s">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6" t="s">
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6" t="s">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6" t="s">
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X26" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6" t="s">
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6" t="s">
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
@@ -1770,109 +2288,130 @@
         <v>44</v>
       </c>
       <c r="H28" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
         <v>0.1</v>
       </c>
       <c r="K28" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="6">
         <v>1</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28">
+        <v>0.1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="Q28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6" t="s">
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6" t="s">
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X28" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6" t="s">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
+      </c>
+      <c r="T29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6" t="s">
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6" t="s">
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6" t="s">
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6" t="s">
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T31" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
@@ -1891,113 +2430,1019 @@
         <v>44</v>
       </c>
       <c r="H32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="6">
-        <v>1</v>
-      </c>
-      <c r="J32">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
         <v>0.1</v>
       </c>
       <c r="K32" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="Q32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6" t="s">
+      <c r="S32" s="6">
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6" t="s">
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X32" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6" t="s">
+      <c r="R33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="6" t="b">
+      <c r="X33" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f>B34&amp;"_"&amp;C34</f>
+        <v>Bullet_Tower_Arrow_Bullet_1</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N34" s="13">
+        <v>1</v>
+      </c>
+      <c r="O34" s="13">
+        <v>1</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34" s="13">
+        <v>0</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X34" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>92</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f>B36&amp;"_"&amp;C36</f>
+        <v>Bullet_Tower_Arrow_Bullet_2</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="13">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N36" s="13">
+        <v>1</v>
+      </c>
+      <c r="O36" s="13">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" s="13">
+        <v>0</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X36" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>101</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X37" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f>B38&amp;"_"&amp;C38</f>
+        <v>Bullet_Tower_Arrow_Bullet_3</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="13">
+        <v>1</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N38" s="13">
+        <v>1</v>
+      </c>
+      <c r="O38" s="13">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38" s="13">
+        <v>0</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X38" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>102</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X39" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f>B40&amp;"_"&amp;C40</f>
+        <v>Bullet_Tower_Cannon_Bullet_1</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L40" s="13">
+        <v>1</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N40" s="13">
+        <v>1</v>
+      </c>
+      <c r="O40" s="13">
+        <v>1</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" s="13">
+        <v>0</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>88</v>
+      </c>
+      <c r="W41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="13" t="str">
+        <f>B42&amp;"_"&amp;C42</f>
+        <v>Bullet_Tower_Cannon_Bullet_2</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L42" s="13">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N42" s="13">
+        <v>1</v>
+      </c>
+      <c r="O42" s="13">
+        <v>1</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>110</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="13" t="str">
+        <f>B44&amp;"_"&amp;C44</f>
+        <v>Bullet_Tower_Cannon_Bullet_3</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N44" s="13">
+        <v>1</v>
+      </c>
+      <c r="O44" s="13">
+        <v>1</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" s="13">
+        <v>0</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>112</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="13" t="str">
+        <f>B46&amp;"_"&amp;C46</f>
+        <v>Bullet_TowerDragon_Bullet1</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L46" s="13">
+        <v>1</v>
+      </c>
+      <c r="M46" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N46" s="13">
+        <v>1</v>
+      </c>
+      <c r="O46" s="13">
+        <v>1</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X47" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="13" t="str">
+        <f>B48&amp;"_"&amp;C48</f>
+        <v>Bullet_TowerDragon_Bullet2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L48" s="13">
+        <v>1</v>
+      </c>
+      <c r="M48" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N48" s="13">
+        <v>1</v>
+      </c>
+      <c r="O48" s="13">
+        <v>1</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="13" t="str">
+        <f>B50&amp;"_"&amp;C50</f>
+        <v>Bullet_TowerDragon_Bullet3</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L50" s="13">
+        <v>1</v>
+      </c>
+      <c r="M50" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1</v>
+      </c>
+      <c r="O50" s="13">
+        <v>1</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X51" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="13" t="str">
+        <f>B52&amp;"_"&amp;C52</f>
+        <v>Bullet_TowerIce_Bullet1</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K52" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L52" s="13">
+        <v>1</v>
+      </c>
+      <c r="M52" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N52" s="13">
+        <v>1</v>
+      </c>
+      <c r="O52" s="13">
+        <v>1</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="W53" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X53" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="13" t="str">
+        <f>B54&amp;"_"&amp;C54</f>
+        <v>Bullet_TowerIce_Bullet2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K54" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L54" s="13">
+        <v>1</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N54" s="13">
+        <v>1</v>
+      </c>
+      <c r="O54" s="13">
+        <v>1</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X54" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="13" t="str">
+        <f>B56&amp;"_"&amp;C56</f>
+        <v>Bullet_TowerIce_Bullet3</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1</v>
+      </c>
+      <c r="M56" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N56" s="13">
+        <v>1</v>
+      </c>
+      <c r="O56" s="13">
+        <v>1</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X56" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="W57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X57" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1720A-F649-4491-B857-63307F771539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D59F70-C140-4923-B6DD-4A108AFED550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -212,28 +210,16 @@
     <t>EffectCreate_3</t>
   </si>
   <si>
-    <t>SelectObjectConfig_CasterUnit</t>
-  </si>
-  <si>
     <t>BulletOnHit</t>
   </si>
   <si>
     <t>PlayAudio_1</t>
   </si>
   <si>
-    <t>SelectObjectConfig_OnAttackUnit</t>
-  </si>
-  <si>
     <t>AttackArea_Bullet1</t>
   </si>
   <si>
-    <t>SelectObjectConfig_BeHurtUnit</t>
-  </si>
-  <si>
     <t>BulletOnRemoved</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Self</t>
   </si>
   <si>
     <t>子弹2</t>
@@ -1109,6 +1095,18 @@
   <si>
     <t>AttackArea_TowerDragon3</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_CasterUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_OnAttackUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_BeHurtUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
   </si>
 </sst>
 </file>
@@ -1605,36 +1603,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="4" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3" customWidth="1"/>
     <col min="16" max="18" width="9" style="3" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" style="3" customWidth="1"/>
     <col min="21" max="21" width="7" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="25.75" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" style="3" customWidth="1"/>
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1700,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1750,7 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1785,7 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1855,7 +1853,7 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1895,7 +1893,7 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +1967,7 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
@@ -2026,55 +2024,55 @@
         <v>58</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="R8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="W8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="R9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="R10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2086,10 +2084,10 @@
         <v>Bullet_2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3">
         <v>2000</v>
@@ -2128,55 +2126,55 @@
         <v>0</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="W12" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="R13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="R14" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="R13" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="R14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3">
         <v>2000</v>
@@ -2233,60 +2231,60 @@
         <v>58</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="R16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="R17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="R18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>B20&amp;"_"&amp;C20</f>
@@ -2296,7 +2294,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H20" s="3">
         <v>2000</v>
@@ -2338,67 +2336,67 @@
         <v>58</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="R21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="R22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E23" s="7"/>
       <c r="R23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>B24&amp;"_"&amp;C24</f>
         <v>Bullet_PlayerSolo1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>54</v>
@@ -2443,67 +2441,67 @@
         <v>58</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="R25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="W25" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="R26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="R27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3" t="str">
         <f>B28&amp;"_"&amp;C28</f>
         <v>Bullet_PlayerAoe1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>54</v>
@@ -2548,67 +2546,67 @@
         <v>58</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="R29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="W29" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="R30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="R31" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S31" s="3">
         <v>0</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3" t="str">
         <f>B32&amp;"_"&amp;C32</f>
         <v>Bullet_EnemySolo1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>54</v>
@@ -2653,40 +2651,40 @@
         <v>58</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="R33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3" t="str">
         <f>B34&amp;"_"&amp;C34</f>
         <v>Bullet_Tower_Arrow_Bullet_1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H34" s="3">
         <v>2000</v>
@@ -2719,62 +2717,62 @@
         <v>56</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S34" s="3">
         <v>0</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3" t="str">
         <f>B37&amp;"_"&amp;C37</f>
         <v>Bullet_Tower_Arrow_Bullet_2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H37" s="3">
         <v>2000</v>
@@ -2807,62 +2805,62 @@
         <v>56</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S38" s="3">
         <v>0</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S39" s="3">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D40" s="3" t="str">
         <f>B40&amp;"_"&amp;C40</f>
         <v>Bullet_Tower_Arrow_Bullet_3</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H40" s="3">
         <v>2000</v>
@@ -2895,62 +2893,62 @@
         <v>56</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S40" s="3">
         <v>0</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>B43&amp;"_"&amp;C43</f>
         <v>Bullet_Tower_Cannon_Bullet_1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H43" s="3">
         <v>2000</v>
@@ -2983,62 +2981,62 @@
         <v>56</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D46" s="3" t="str">
         <f>B46&amp;"_"&amp;C46</f>
         <v>Bullet_Tower_Cannon_Bullet_2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>2000</v>
@@ -3071,62 +3069,62 @@
         <v>56</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="3" t="str">
         <f>B49&amp;"_"&amp;C49</f>
         <v>Bullet_Tower_Cannon_Bullet_3</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
@@ -3159,62 +3157,62 @@
         <v>56</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S51" s="3">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="3" t="str">
         <f>B52&amp;"_"&amp;C52</f>
         <v>Bullet_TowerDragon_Bullet1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H52" s="3">
         <v>2000</v>
@@ -3247,62 +3245,62 @@
         <v>56</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S53" s="3">
         <v>0</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D55" s="3" t="str">
         <f>B55&amp;"_"&amp;C55</f>
         <v>Bullet_TowerDragon_Bullet2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H55" s="3">
         <v>2000</v>
@@ -3335,62 +3333,62 @@
         <v>56</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S55" s="3">
         <v>0</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S56" s="3">
         <v>0</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D58" s="3" t="str">
         <f>B58&amp;"_"&amp;C58</f>
         <v>Bullet_TowerDragon_Bullet3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H58" s="3">
         <v>2000</v>
@@ -3423,62 +3421,62 @@
         <v>56</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D61" s="3" t="str">
         <f>B61&amp;"_"&amp;C61</f>
         <v>Bullet_TowerIce_Bullet1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H61" s="3">
         <v>2000</v>
@@ -3511,62 +3509,62 @@
         <v>56</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S63" s="3">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D64" s="3" t="str">
         <f>B64&amp;"_"&amp;C64</f>
         <v>Bullet_TowerIce_Bullet2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H64" s="3">
         <v>2000</v>
@@ -3599,62 +3597,62 @@
         <v>56</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S64" s="3">
         <v>0</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S65" s="3">
         <v>0</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D67" s="3" t="str">
         <f>B67&amp;"_"&amp;C67</f>
         <v>Bullet_TowerIce_Bullet3</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H67" s="3">
         <v>2000</v>
@@ -3687,61 +3685,61 @@
         <v>56</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S67" s="3">
         <v>0</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S68" s="3">
         <v>0</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S69" s="3">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H70" s="3">
         <v>2000</v>
@@ -3774,61 +3772,61 @@
         <v>56</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R71" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S71" s="3">
         <v>0</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R72" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H73" s="3">
         <v>2000</v>
@@ -3861,61 +3859,61 @@
         <v>56</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S73" s="3">
         <v>0</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R74" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S74" s="3">
         <v>0</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S75" s="3">
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H76" s="3">
         <v>2000</v>
@@ -3948,61 +3946,61 @@
         <v>56</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R77" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S77" s="3">
         <v>0</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R78" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S78" s="3">
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H79" s="3">
         <v>2000</v>
@@ -4035,61 +4033,61 @@
         <v>56</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S79" s="3">
         <v>0</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R80" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S80" s="3">
         <v>0</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R81" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H82" s="3">
         <v>2000</v>
@@ -4122,61 +4120,61 @@
         <v>56</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S82" s="3">
         <v>0</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R83" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R84" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S84" s="3">
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H85" s="3">
         <v>2000</v>
@@ -4209,61 +4207,61 @@
         <v>56</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S85" s="3">
         <v>0</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R86" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S86" s="3">
         <v>0</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R87" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S87" s="3">
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H88" s="3">
         <v>2000</v>
@@ -4296,61 +4294,61 @@
         <v>56</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S88" s="3">
         <v>0</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R89" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R90" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S90" s="3">
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H91" s="3">
         <v>2000</v>
@@ -4383,61 +4381,61 @@
         <v>56</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R92" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S92" s="3">
         <v>0</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R93" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S93" s="3">
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H94" s="3">
         <v>2000</v>
@@ -4470,61 +4468,61 @@
         <v>56</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R95" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S95" s="3">
         <v>0</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R96" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H97" s="3">
         <v>2000</v>
@@ -4557,61 +4555,61 @@
         <v>56</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S97" s="3">
         <v>0</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R98" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S98" s="3">
         <v>0</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R99" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S99" s="3">
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H100" s="3">
         <v>2000</v>
@@ -4644,61 +4642,61 @@
         <v>56</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R101" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R102" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H103" s="3">
         <v>2000</v>
@@ -4731,61 +4729,61 @@
         <v>56</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S103" s="3">
         <v>0</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R104" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S104" s="3">
         <v>0</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R105" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S105" s="3">
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H106" s="3">
         <v>2000</v>
@@ -4818,61 +4816,61 @@
         <v>56</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S106" s="3">
         <v>0</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R107" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S107" s="3">
         <v>0</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R108" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S108" s="3">
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H109" s="3">
         <v>2000</v>
@@ -4905,61 +4903,61 @@
         <v>56</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S109" s="3">
         <v>0</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R110" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S110" s="3">
         <v>0</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R111" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S111" s="3">
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H112" s="3">
         <v>2000</v>
@@ -4992,61 +4990,61 @@
         <v>56</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S112" s="3">
         <v>0</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R113" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S113" s="3">
         <v>0</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R114" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S114" s="3">
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H115" s="3">
         <v>2000</v>
@@ -5079,61 +5077,61 @@
         <v>56</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S115" s="3">
         <v>0</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R116" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S116" s="3">
         <v>0</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R117" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S117" s="3">
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H118" s="3">
         <v>2000</v>
@@ -5166,61 +5164,61 @@
         <v>56</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S118" s="3">
         <v>0</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R119" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S119" s="3">
         <v>0</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R120" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S120" s="3">
         <v>0</v>
       </c>
       <c r="T120" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H121" s="3">
         <v>2000</v>
@@ -5253,61 +5251,61 @@
         <v>56</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S121" s="3">
         <v>0</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R122" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S122" s="3">
         <v>0</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R123" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S123" s="3">
         <v>0</v>
       </c>
       <c r="T123" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H124" s="3">
         <v>2000</v>
@@ -5340,61 +5338,61 @@
         <v>56</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S124" s="3">
         <v>0</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R125" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S125" s="3">
         <v>0</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R126" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S126" s="3">
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H127" s="3">
         <v>2000</v>
@@ -5427,61 +5425,61 @@
         <v>56</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S127" s="3">
         <v>0</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R128" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S128" s="3">
         <v>0</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R129" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S129" s="3">
         <v>0</v>
       </c>
       <c r="T129" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H130" s="3">
         <v>2000</v>
@@ -5514,61 +5512,61 @@
         <v>56</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S130" s="3">
         <v>0</v>
       </c>
       <c r="T130" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W130" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R131" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S131" s="3">
         <v>0</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="W131" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R132" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S132" s="3">
         <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W132" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H133" s="3">
         <v>2000</v>
@@ -5601,61 +5599,61 @@
         <v>56</v>
       </c>
       <c r="R133" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S133" s="3">
         <v>0</v>
       </c>
       <c r="T133" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="W133" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R134" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S134" s="3">
         <v>0</v>
       </c>
       <c r="T134" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="W134" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R135" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S135" s="3">
         <v>0</v>
       </c>
       <c r="T135" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="W135" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H136" s="3">
         <v>2000</v>
@@ -5688,61 +5686,61 @@
         <v>56</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S136" s="3">
         <v>0</v>
       </c>
       <c r="T136" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W136" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R137" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S137" s="3">
         <v>0</v>
       </c>
       <c r="T137" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="W137" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R138" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S138" s="3">
         <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="W138" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H139" s="3">
         <v>2000</v>
@@ -5775,61 +5773,61 @@
         <v>56</v>
       </c>
       <c r="R139" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S139" s="3">
         <v>0</v>
       </c>
       <c r="T139" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="W139" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R140" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S140" s="3">
         <v>0</v>
       </c>
       <c r="T140" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R141" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S141" s="3">
         <v>0</v>
       </c>
       <c r="T141" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="W141" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H142" s="3">
         <v>2000</v>
@@ -5862,61 +5860,61 @@
         <v>56</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S142" s="3">
         <v>0</v>
       </c>
       <c r="T142" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="W142" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R143" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S143" s="3">
         <v>0</v>
       </c>
       <c r="T143" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="W143" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R144" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S144" s="3">
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="W144" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H145" s="3">
         <v>2000</v>
@@ -5949,61 +5947,61 @@
         <v>56</v>
       </c>
       <c r="R145" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S145" s="3">
         <v>0</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="W145" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R146" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S146" s="3">
         <v>0</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R147" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S147" s="3">
         <v>0</v>
       </c>
       <c r="T147" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H148" s="3">
         <v>2000</v>
@@ -6036,61 +6034,61 @@
         <v>56</v>
       </c>
       <c r="R148" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S148" s="3">
         <v>0</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W148" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R149" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S149" s="3">
         <v>0</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="W149" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R150" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S150" s="3">
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="W150" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H151" s="3">
         <v>2000</v>
@@ -6123,61 +6121,61 @@
         <v>56</v>
       </c>
       <c r="R151" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S151" s="3">
         <v>0</v>
       </c>
       <c r="T151" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="W151" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R152" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S152" s="3">
         <v>0</v>
       </c>
       <c r="T152" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R153" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S153" s="3">
         <v>0</v>
       </c>
       <c r="T153" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="W153" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H154" s="3">
         <v>2000</v>
@@ -6210,61 +6208,61 @@
         <v>56</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S154" s="3">
         <v>0</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="W154" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R155" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S155" s="3">
         <v>0</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="W155" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R156" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S156" s="3">
         <v>0</v>
       </c>
       <c r="T156" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="W156" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H157" s="3">
         <v>2000</v>
@@ -6297,44 +6295,44 @@
         <v>56</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S157" s="3">
         <v>0</v>
       </c>
       <c r="T157" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="W157" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R158" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S158" s="3">
         <v>0</v>
       </c>
       <c r="T158" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="W158" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R159" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S159" s="3">
         <v>0</v>
       </c>
       <c r="T159" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="W159" s="3" t="s">
-        <v>64</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D59F70-C140-4923-B6DD-4A108AFED550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDCE4B-4D26-4060-B1FE-9235281E4314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1602,37 +1591,37 @@
   <dimension ref="A1:AH159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="4" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
     <col min="16" max="18" width="9" style="3" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="3" customWidth="1"/>
     <col min="21" max="21" width="7" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="25.77734375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.75" style="3" customWidth="1"/>
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1689,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1739,7 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1774,7 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +1842,7 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1882,7 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +1956,7 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1985,7 +1974,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>0</v>
@@ -2027,7 +2016,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E8" s="7"/>
       <c r="R8" s="3" t="s">
         <v>59</v>
@@ -2042,7 +2031,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E9" s="7"/>
       <c r="R9" s="3" t="s">
         <v>59</v>
@@ -2057,7 +2046,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E10" s="7"/>
       <c r="R10" s="3" t="s">
         <v>62</v>
@@ -2072,7 +2061,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2090,7 +2079,7 @@
         <v>64</v>
       </c>
       <c r="H11" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I11" s="3" t="b">
         <v>0</v>
@@ -2132,7 +2121,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R12" s="3" t="s">
         <v>59</v>
       </c>
@@ -2146,7 +2135,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R13" s="3" t="s">
         <v>59</v>
       </c>
@@ -2160,7 +2149,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R14" s="3" t="s">
         <v>62</v>
       </c>
@@ -2174,7 +2163,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2181,7 @@
         <v>65</v>
       </c>
       <c r="H15" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="b">
         <v>0</v>
@@ -2234,7 +2223,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E16" s="7"/>
       <c r="R16" s="3" t="s">
         <v>59</v>
@@ -2249,7 +2238,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E17" s="7"/>
       <c r="R17" s="3" t="s">
         <v>59</v>
@@ -2264,7 +2253,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E18" s="7"/>
       <c r="R18" s="3" t="s">
         <v>62</v>
@@ -2279,7 +2268,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2297,7 +2286,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3" t="b">
         <v>0</v>
@@ -2339,7 +2328,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E21" s="7"/>
       <c r="R21" s="3" t="s">
         <v>59</v>
@@ -2354,7 +2343,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="R22" s="3" t="s">
         <v>59</v>
@@ -2369,7 +2358,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E23" s="7"/>
       <c r="R23" s="3" t="s">
         <v>62</v>
@@ -2384,7 +2373,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
@@ -2402,7 +2391,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3" t="b">
         <v>0</v>
@@ -2444,7 +2433,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E25" s="7"/>
       <c r="R25" s="3" t="s">
         <v>59</v>
@@ -2459,7 +2448,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E26" s="7"/>
       <c r="R26" s="3" t="s">
         <v>59</v>
@@ -2474,7 +2463,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E27" s="7"/>
       <c r="R27" s="3" t="s">
         <v>62</v>
@@ -2489,7 +2478,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2507,7 +2496,7 @@
         <v>54</v>
       </c>
       <c r="H28" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I28" s="3" t="b">
         <v>0</v>
@@ -2549,7 +2538,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E29" s="7"/>
       <c r="R29" s="3" t="s">
         <v>59</v>
@@ -2564,7 +2553,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E30" s="7"/>
       <c r="R30" s="3" t="s">
         <v>59</v>
@@ -2579,7 +2568,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E31" s="7"/>
       <c r="R31" s="3" t="s">
         <v>62</v>
@@ -2594,7 +2583,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
@@ -2612,7 +2601,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3" t="b">
         <v>0</v>
@@ -2654,7 +2643,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E33" s="7"/>
       <c r="R33" s="3" t="s">
         <v>59</v>
@@ -2669,7 +2658,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
@@ -2687,7 +2676,7 @@
         <v>80</v>
       </c>
       <c r="H34" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I34" s="3" t="b">
         <v>0</v>
@@ -2729,7 +2718,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2743,7 +2732,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R36" s="3" t="s">
         <v>59</v>
       </c>
@@ -2757,7 +2746,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2764,7 @@
         <v>85</v>
       </c>
       <c r="H37" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I37" s="3" t="b">
         <v>0</v>
@@ -2817,7 +2806,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R38" s="3" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +2820,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R39" s="3" t="s">
         <v>59</v>
       </c>
@@ -2845,7 +2834,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
@@ -2863,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="H40" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I40" s="3" t="b">
         <v>0</v>
@@ -2905,7 +2894,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R41" s="3" t="s">
         <v>59</v>
       </c>
@@ -2919,7 +2908,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R42" s="3" t="s">
         <v>59</v>
       </c>
@@ -2933,7 +2922,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
@@ -2951,7 +2940,7 @@
         <v>95</v>
       </c>
       <c r="H43" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3" t="b">
         <v>0</v>
@@ -2993,7 +2982,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R44" s="3" t="s">
         <v>59</v>
       </c>
@@ -3007,7 +2996,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R45" s="3" t="s">
         <v>59</v>
       </c>
@@ -3021,7 +3010,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
@@ -3039,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3" t="b">
         <v>0</v>
@@ -3081,7 +3070,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R47" s="3" t="s">
         <v>59</v>
       </c>
@@ -3095,7 +3084,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R48" s="3" t="s">
         <v>59</v>
       </c>
@@ -3109,7 +3098,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3116,7 @@
         <v>106</v>
       </c>
       <c r="H49" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3" t="b">
         <v>0</v>
@@ -3169,7 +3158,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R50" s="3" t="s">
         <v>59</v>
       </c>
@@ -3183,7 +3172,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R51" s="3" t="s">
         <v>59</v>
       </c>
@@ -3197,7 +3186,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
@@ -3215,7 +3204,7 @@
         <v>112</v>
       </c>
       <c r="H52" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="b">
         <v>0</v>
@@ -3257,7 +3246,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R53" s="3" t="s">
         <v>59</v>
       </c>
@@ -3271,7 +3260,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3285,7 +3274,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>52</v>
       </c>
@@ -3303,7 +3292,7 @@
         <v>117</v>
       </c>
       <c r="H55" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I55" s="3" t="b">
         <v>0</v>
@@ -3345,7 +3334,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R56" s="3" t="s">
         <v>59</v>
       </c>
@@ -3359,7 +3348,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R57" s="3" t="s">
         <v>59</v>
       </c>
@@ -3373,7 +3362,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
@@ -3391,7 +3380,7 @@
         <v>122</v>
       </c>
       <c r="H58" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="b">
         <v>0</v>
@@ -3433,7 +3422,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R59" s="3" t="s">
         <v>59</v>
       </c>
@@ -3447,7 +3436,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R60" s="3" t="s">
         <v>59</v>
       </c>
@@ -3461,7 +3450,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
@@ -3479,7 +3468,7 @@
         <v>127</v>
       </c>
       <c r="H61" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3" t="b">
         <v>0</v>
@@ -3521,7 +3510,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R62" s="3" t="s">
         <v>59</v>
       </c>
@@ -3535,7 +3524,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R63" s="3" t="s">
         <v>59</v>
       </c>
@@ -3549,7 +3538,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>52</v>
       </c>
@@ -3567,7 +3556,7 @@
         <v>133</v>
       </c>
       <c r="H64" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I64" s="3" t="b">
         <v>0</v>
@@ -3609,7 +3598,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R65" s="3" t="s">
         <v>59</v>
       </c>
@@ -3623,7 +3612,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R66" s="3" t="s">
         <v>59</v>
       </c>
@@ -3637,7 +3626,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
@@ -3655,7 +3644,7 @@
         <v>139</v>
       </c>
       <c r="H67" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I67" s="3" t="b">
         <v>0</v>
@@ -3697,7 +3686,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R68" s="3" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3700,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R69" s="3" t="s">
         <v>59</v>
       </c>
@@ -3725,7 +3714,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>52</v>
       </c>
@@ -3742,7 +3731,7 @@
         <v>146</v>
       </c>
       <c r="H70" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3" t="b">
         <v>0</v>
@@ -3784,7 +3773,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R71" s="3" t="s">
         <v>59</v>
       </c>
@@ -3798,7 +3787,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R72" s="3" t="s">
         <v>59</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>52</v>
       </c>
@@ -3829,7 +3818,7 @@
         <v>153</v>
       </c>
       <c r="H73" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I73" s="3" t="b">
         <v>0</v>
@@ -3871,7 +3860,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R74" s="3" t="s">
         <v>59</v>
       </c>
@@ -3885,7 +3874,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R75" s="3" t="s">
         <v>59</v>
       </c>
@@ -3899,7 +3888,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>52</v>
       </c>
@@ -3916,7 +3905,7 @@
         <v>160</v>
       </c>
       <c r="H76" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I76" s="3" t="b">
         <v>0</v>
@@ -3958,7 +3947,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R77" s="3" t="s">
         <v>59</v>
       </c>
@@ -3972,7 +3961,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R78" s="3" t="s">
         <v>59</v>
       </c>
@@ -3986,7 +3975,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4003,7 +3992,7 @@
         <v>167</v>
       </c>
       <c r="H79" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I79" s="3" t="b">
         <v>0</v>
@@ -4045,7 +4034,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R80" s="3" t="s">
         <v>59</v>
       </c>
@@ -4059,7 +4048,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R81" s="3" t="s">
         <v>59</v>
       </c>
@@ -4073,7 +4062,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>52</v>
       </c>
@@ -4090,7 +4079,7 @@
         <v>174</v>
       </c>
       <c r="H82" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I82" s="3" t="b">
         <v>0</v>
@@ -4132,7 +4121,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R83" s="3" t="s">
         <v>59</v>
       </c>
@@ -4146,7 +4135,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R84" s="3" t="s">
         <v>59</v>
       </c>
@@ -4160,7 +4149,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>52</v>
       </c>
@@ -4177,7 +4166,7 @@
         <v>181</v>
       </c>
       <c r="H85" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I85" s="3" t="b">
         <v>0</v>
@@ -4219,7 +4208,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R86" s="3" t="s">
         <v>59</v>
       </c>
@@ -4233,7 +4222,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R87" s="3" t="s">
         <v>59</v>
       </c>
@@ -4247,7 +4236,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>52</v>
       </c>
@@ -4264,7 +4253,7 @@
         <v>188</v>
       </c>
       <c r="H88" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I88" s="3" t="b">
         <v>0</v>
@@ -4306,7 +4295,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R89" s="3" t="s">
         <v>59</v>
       </c>
@@ -4320,7 +4309,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R90" s="3" t="s">
         <v>59</v>
       </c>
@@ -4334,7 +4323,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
@@ -4351,7 +4340,7 @@
         <v>195</v>
       </c>
       <c r="H91" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I91" s="3" t="b">
         <v>0</v>
@@ -4393,7 +4382,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R92" s="3" t="s">
         <v>59</v>
       </c>
@@ -4407,7 +4396,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R93" s="3" t="s">
         <v>59</v>
       </c>
@@ -4421,7 +4410,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>52</v>
       </c>
@@ -4438,7 +4427,7 @@
         <v>202</v>
       </c>
       <c r="H94" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I94" s="3" t="b">
         <v>0</v>
@@ -4480,7 +4469,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R95" s="3" t="s">
         <v>59</v>
       </c>
@@ -4494,7 +4483,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R96" s="3" t="s">
         <v>59</v>
       </c>
@@ -4508,7 +4497,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>52</v>
       </c>
@@ -4525,7 +4514,7 @@
         <v>209</v>
       </c>
       <c r="H97" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I97" s="3" t="b">
         <v>0</v>
@@ -4567,7 +4556,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R98" s="3" t="s">
         <v>59</v>
       </c>
@@ -4581,7 +4570,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R99" s="3" t="s">
         <v>59</v>
       </c>
@@ -4595,7 +4584,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>52</v>
       </c>
@@ -4612,7 +4601,7 @@
         <v>216</v>
       </c>
       <c r="H100" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3" t="b">
         <v>0</v>
@@ -4654,7 +4643,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R101" s="3" t="s">
         <v>59</v>
       </c>
@@ -4668,7 +4657,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R102" s="3" t="s">
         <v>59</v>
       </c>
@@ -4682,7 +4671,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>52</v>
       </c>
@@ -4699,7 +4688,7 @@
         <v>223</v>
       </c>
       <c r="H103" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I103" s="3" t="b">
         <v>0</v>
@@ -4741,7 +4730,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R104" s="3" t="s">
         <v>59</v>
       </c>
@@ -4755,7 +4744,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R105" s="3" t="s">
         <v>59</v>
       </c>
@@ -4769,7 +4758,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>52</v>
       </c>
@@ -4786,7 +4775,7 @@
         <v>228</v>
       </c>
       <c r="H106" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I106" s="3" t="b">
         <v>0</v>
@@ -4828,7 +4817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R107" s="3" t="s">
         <v>59</v>
       </c>
@@ -4842,7 +4831,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R108" s="3" t="s">
         <v>59</v>
       </c>
@@ -4856,7 +4845,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>52</v>
       </c>
@@ -4873,7 +4862,7 @@
         <v>235</v>
       </c>
       <c r="H109" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I109" s="3" t="b">
         <v>0</v>
@@ -4915,7 +4904,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R110" s="3" t="s">
         <v>59</v>
       </c>
@@ -4929,7 +4918,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R111" s="3" t="s">
         <v>59</v>
       </c>
@@ -4943,7 +4932,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>52</v>
       </c>
@@ -4960,7 +4949,7 @@
         <v>242</v>
       </c>
       <c r="H112" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I112" s="3" t="b">
         <v>0</v>
@@ -5002,7 +4991,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R113" s="3" t="s">
         <v>59</v>
       </c>
@@ -5016,7 +5005,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R114" s="3" t="s">
         <v>59</v>
       </c>
@@ -5030,7 +5019,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>52</v>
       </c>
@@ -5047,7 +5036,7 @@
         <v>249</v>
       </c>
       <c r="H115" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I115" s="3" t="b">
         <v>0</v>
@@ -5089,7 +5078,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R116" s="3" t="s">
         <v>59</v>
       </c>
@@ -5103,7 +5092,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R117" s="3" t="s">
         <v>59</v>
       </c>
@@ -5117,7 +5106,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>52</v>
       </c>
@@ -5134,7 +5123,7 @@
         <v>256</v>
       </c>
       <c r="H118" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I118" s="3" t="b">
         <v>0</v>
@@ -5176,7 +5165,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R119" s="3" t="s">
         <v>59</v>
       </c>
@@ -5190,7 +5179,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R120" s="3" t="s">
         <v>59</v>
       </c>
@@ -5204,7 +5193,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>52</v>
       </c>
@@ -5221,7 +5210,7 @@
         <v>263</v>
       </c>
       <c r="H121" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I121" s="3" t="b">
         <v>0</v>
@@ -5263,7 +5252,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R122" s="3" t="s">
         <v>59</v>
       </c>
@@ -5277,7 +5266,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R123" s="3" t="s">
         <v>59</v>
       </c>
@@ -5291,7 +5280,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>52</v>
       </c>
@@ -5308,7 +5297,7 @@
         <v>270</v>
       </c>
       <c r="H124" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I124" s="3" t="b">
         <v>0</v>
@@ -5350,7 +5339,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R125" s="3" t="s">
         <v>59</v>
       </c>
@@ -5364,7 +5353,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R126" s="3" t="s">
         <v>59</v>
       </c>
@@ -5378,7 +5367,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>52</v>
       </c>
@@ -5395,7 +5384,7 @@
         <v>277</v>
       </c>
       <c r="H127" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I127" s="3" t="b">
         <v>0</v>
@@ -5437,7 +5426,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R128" s="3" t="s">
         <v>59</v>
       </c>
@@ -5451,7 +5440,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R129" s="3" t="s">
         <v>59</v>
       </c>
@@ -5465,7 +5454,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5482,7 +5471,7 @@
         <v>284</v>
       </c>
       <c r="H130" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I130" s="3" t="b">
         <v>0</v>
@@ -5524,7 +5513,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R131" s="3" t="s">
         <v>59</v>
       </c>
@@ -5538,7 +5527,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R132" s="3" t="s">
         <v>59</v>
       </c>
@@ -5552,7 +5541,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>52</v>
       </c>
@@ -5569,7 +5558,7 @@
         <v>291</v>
       </c>
       <c r="H133" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I133" s="3" t="b">
         <v>0</v>
@@ -5611,7 +5600,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R134" s="3" t="s">
         <v>59</v>
       </c>
@@ -5625,7 +5614,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R135" s="3" t="s">
         <v>59</v>
       </c>
@@ -5639,7 +5628,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>52</v>
       </c>
@@ -5656,7 +5645,7 @@
         <v>298</v>
       </c>
       <c r="H136" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I136" s="3" t="b">
         <v>0</v>
@@ -5698,7 +5687,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R137" s="3" t="s">
         <v>59</v>
       </c>
@@ -5712,7 +5701,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R138" s="3" t="s">
         <v>59</v>
       </c>
@@ -5726,7 +5715,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>52</v>
       </c>
@@ -5743,7 +5732,7 @@
         <v>305</v>
       </c>
       <c r="H139" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I139" s="3" t="b">
         <v>0</v>
@@ -5785,7 +5774,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R140" s="3" t="s">
         <v>59</v>
       </c>
@@ -5799,7 +5788,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R141" s="3" t="s">
         <v>59</v>
       </c>
@@ -5813,7 +5802,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>52</v>
       </c>
@@ -5830,7 +5819,7 @@
         <v>312</v>
       </c>
       <c r="H142" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I142" s="3" t="b">
         <v>0</v>
@@ -5872,7 +5861,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R143" s="3" t="s">
         <v>59</v>
       </c>
@@ -5886,7 +5875,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R144" s="3" t="s">
         <v>59</v>
       </c>
@@ -5900,7 +5889,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>52</v>
       </c>
@@ -5917,7 +5906,7 @@
         <v>319</v>
       </c>
       <c r="H145" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I145" s="3" t="b">
         <v>0</v>
@@ -5959,7 +5948,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R146" s="3" t="s">
         <v>59</v>
       </c>
@@ -5973,7 +5962,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R147" s="3" t="s">
         <v>59</v>
       </c>
@@ -5987,7 +5976,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>52</v>
       </c>
@@ -6004,7 +5993,7 @@
         <v>326</v>
       </c>
       <c r="H148" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I148" s="3" t="b">
         <v>0</v>
@@ -6046,7 +6035,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R149" s="3" t="s">
         <v>59</v>
       </c>
@@ -6060,7 +6049,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R150" s="3" t="s">
         <v>59</v>
       </c>
@@ -6074,7 +6063,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>52</v>
       </c>
@@ -6091,7 +6080,7 @@
         <v>333</v>
       </c>
       <c r="H151" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I151" s="3" t="b">
         <v>0</v>
@@ -6133,7 +6122,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R152" s="3" t="s">
         <v>59</v>
       </c>
@@ -6147,7 +6136,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R153" s="3" t="s">
         <v>59</v>
       </c>
@@ -6161,7 +6150,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
         <v>52</v>
       </c>
@@ -6178,7 +6167,7 @@
         <v>340</v>
       </c>
       <c r="H154" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I154" s="3" t="b">
         <v>0</v>
@@ -6220,7 +6209,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R155" s="3" t="s">
         <v>59</v>
       </c>
@@ -6234,7 +6223,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R156" s="3" t="s">
         <v>59</v>
       </c>
@@ -6248,7 +6237,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
         <v>52</v>
       </c>
@@ -6265,7 +6254,7 @@
         <v>347</v>
       </c>
       <c r="H157" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I157" s="3" t="b">
         <v>0</v>
@@ -6307,7 +6296,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R158" s="3" t="s">
         <v>59</v>
       </c>
@@ -6321,7 +6310,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R159" s="3" t="s">
         <v>59</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDCE4B-4D26-4060-B1FE-9235281E4314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE2CAD-8441-43D4-B71F-65943ED98A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="376">
   <si>
     <t>##var</t>
   </si>
@@ -1096,6 +1096,60 @@
   </si>
   <si>
     <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>水晶炮弹1</t>
+  </si>
+  <si>
+    <t>水晶炮弹2</t>
+  </si>
+  <si>
+    <t>水晶炮弹3</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet1</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet1</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerFire_Hit1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFire1</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet2</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet2</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerFire_Hit2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFire2</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet3</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet3</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerFire_Hit3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFire3</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerFire1</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerFire2</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerFire3</t>
   </si>
 </sst>
 </file>
@@ -1588,11 +1642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH159"/>
+  <dimension ref="A1:AH168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1606,8 +1660,7 @@
     <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="16.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="13" style="3" customWidth="1"/>
     <col min="13" max="13" width="19.25" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
@@ -3714,264 +3767,267 @@
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H70" s="3">
+      <c r="C70" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>B70&amp;"_"&amp;C70</f>
+        <v>Bullet_TowerFire_Bullet1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H70" s="1">
         <v>200</v>
       </c>
-      <c r="I70" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1</v>
-      </c>
-      <c r="P70" s="3" t="s">
+      <c r="I70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>99</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="Q70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R71" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S71" s="3">
-        <v>0</v>
-      </c>
-      <c r="T71" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="W71" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" t="s">
-        <v>149</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
+      <c r="R70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" s="3">
+      <c r="C73" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>B73&amp;"_"&amp;C73</f>
+        <v>Bullet_TowerFire_Bullet2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H73" s="1">
         <v>200</v>
       </c>
-      <c r="I73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N73" s="3">
-        <v>1</v>
-      </c>
-      <c r="O73" s="3">
-        <v>1</v>
-      </c>
-      <c r="P73" s="3" t="s">
+      <c r="I73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>99</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q73" s="3" t="s">
+      <c r="Q73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R73" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S73" s="3">
-        <v>0</v>
-      </c>
-      <c r="T73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="W73" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S74" s="3">
-        <v>0</v>
-      </c>
-      <c r="T74" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W74" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S75" s="3">
-        <v>0</v>
-      </c>
-      <c r="T75" t="s">
-        <v>156</v>
-      </c>
-      <c r="W75" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
+      <c r="R73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="C76" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>B76&amp;"_"&amp;C76</f>
+        <v>Bullet_TowerFire_Bullet3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H76" s="1">
         <v>200</v>
       </c>
-      <c r="I76" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1</v>
-      </c>
-      <c r="P76" s="3" t="s">
+      <c r="I76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>99</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="Q76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S77" s="3">
-        <v>0</v>
-      </c>
-      <c r="T77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="W77" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S78" s="3">
-        <v>0</v>
-      </c>
-      <c r="T78" t="s">
-        <v>163</v>
-      </c>
-      <c r="W78" s="3" t="s">
+      <c r="R76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="W78" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3980,16 +4036,16 @@
         <v>52</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H79" s="3">
         <v>200</v>
@@ -4028,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="W79" s="3" t="s">
         <v>356</v>
@@ -4042,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="W80" s="3" t="s">
         <v>356</v>
@@ -4056,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>356</v>
@@ -4067,16 +4123,16 @@
         <v>52</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H82" s="3">
         <v>200</v>
@@ -4115,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="W82" s="3" t="s">
         <v>356</v>
@@ -4129,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>356</v>
@@ -4143,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="W84" s="3" t="s">
         <v>356</v>
@@ -4154,16 +4210,16 @@
         <v>52</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H85" s="3">
         <v>200</v>
@@ -4202,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="W85" s="3" t="s">
         <v>356</v>
@@ -4216,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="W86" s="3" t="s">
         <v>356</v>
@@ -4230,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="W87" s="3" t="s">
         <v>356</v>
@@ -4241,16 +4297,16 @@
         <v>52</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H88" s="3">
         <v>200</v>
@@ -4289,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="W88" s="3" t="s">
         <v>356</v>
@@ -4303,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>356</v>
@@ -4317,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="W90" s="3" t="s">
         <v>356</v>
@@ -4328,16 +4384,16 @@
         <v>52</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H91" s="3">
         <v>200</v>
@@ -4376,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>356</v>
@@ -4390,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="W92" s="3" t="s">
         <v>356</v>
@@ -4404,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="W93" s="3" t="s">
         <v>356</v>
@@ -4415,16 +4471,16 @@
         <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H94" s="3">
         <v>200</v>
@@ -4463,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>356</v>
@@ -4477,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="W95" s="3" t="s">
         <v>356</v>
@@ -4491,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="W96" s="3" t="s">
         <v>356</v>
@@ -4502,16 +4558,16 @@
         <v>52</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H97" s="3">
         <v>200</v>
@@ -4550,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="W97" s="3" t="s">
         <v>356</v>
@@ -4564,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="W98" s="3" t="s">
         <v>356</v>
@@ -4578,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="W99" s="3" t="s">
         <v>356</v>
@@ -4589,16 +4645,16 @@
         <v>52</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -4637,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>356</v>
@@ -4651,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>356</v>
@@ -4665,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>356</v>
@@ -4676,16 +4732,16 @@
         <v>52</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="H103" s="3">
         <v>200</v>
@@ -4724,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="W103" s="3" t="s">
         <v>356</v>
@@ -4738,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="W104" s="3" t="s">
         <v>356</v>
@@ -4752,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="W105" s="3" t="s">
         <v>356</v>
@@ -4763,16 +4819,16 @@
         <v>52</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H106" s="3">
         <v>200</v>
@@ -4811,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="W106" s="3" t="s">
         <v>356</v>
@@ -4825,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="W107" s="3" t="s">
         <v>356</v>
@@ -4839,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="W108" s="3" t="s">
         <v>356</v>
@@ -4850,16 +4906,16 @@
         <v>52</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="H109" s="3">
         <v>200</v>
@@ -4898,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="W109" s="3" t="s">
         <v>356</v>
@@ -4912,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="W110" s="3" t="s">
         <v>356</v>
@@ -4926,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="W111" s="3" t="s">
         <v>356</v>
@@ -4937,16 +4993,16 @@
         <v>52</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H112" s="3">
         <v>200</v>
@@ -4985,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="W112" s="3" t="s">
         <v>356</v>
@@ -4999,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="W113" s="3" t="s">
         <v>356</v>
@@ -5013,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="W114" s="3" t="s">
         <v>356</v>
@@ -5024,16 +5080,16 @@
         <v>52</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="H115" s="3">
         <v>200</v>
@@ -5072,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="W115" s="3" t="s">
         <v>356</v>
@@ -5086,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="W116" s="3" t="s">
         <v>356</v>
@@ -5100,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="W117" s="3" t="s">
         <v>356</v>
@@ -5111,16 +5167,16 @@
         <v>52</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="H118" s="3">
         <v>200</v>
@@ -5159,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="W118" s="3" t="s">
         <v>356</v>
@@ -5173,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="W119" s="3" t="s">
         <v>356</v>
@@ -5187,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="T120" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="W120" s="3" t="s">
         <v>356</v>
@@ -5198,16 +5254,16 @@
         <v>52</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H121" s="3">
         <v>200</v>
@@ -5246,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="W121" s="3" t="s">
         <v>356</v>
@@ -5260,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="W122" s="3" t="s">
         <v>356</v>
@@ -5274,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="T123" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="W123" s="3" t="s">
         <v>356</v>
@@ -5285,16 +5341,16 @@
         <v>52</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="H124" s="3">
         <v>200</v>
@@ -5333,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="W124" s="3" t="s">
         <v>356</v>
@@ -5347,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="W125" s="3" t="s">
         <v>356</v>
@@ -5361,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="W126" s="3" t="s">
         <v>356</v>
@@ -5372,16 +5428,16 @@
         <v>52</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="H127" s="3">
         <v>200</v>
@@ -5420,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="W127" s="3" t="s">
         <v>356</v>
@@ -5434,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="W128" s="3" t="s">
         <v>356</v>
@@ -5448,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="T129" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="W129" s="3" t="s">
         <v>356</v>
@@ -5459,16 +5515,16 @@
         <v>52</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="H130" s="3">
         <v>200</v>
@@ -5507,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="T130" s="3" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="W130" s="3" t="s">
         <v>356</v>
@@ -5521,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="W131" s="3" t="s">
         <v>356</v>
@@ -5535,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="W132" s="3" t="s">
         <v>356</v>
@@ -5546,16 +5602,16 @@
         <v>52</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="H133" s="3">
         <v>200</v>
@@ -5594,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="T133" s="3" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="W133" s="3" t="s">
         <v>356</v>
@@ -5608,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="T134" s="3" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="W134" s="3" t="s">
         <v>356</v>
@@ -5622,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="W135" s="3" t="s">
         <v>356</v>
@@ -5633,16 +5689,16 @@
         <v>52</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H136" s="3">
         <v>200</v>
@@ -5681,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="T136" s="3" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="W136" s="3" t="s">
         <v>356</v>
@@ -5695,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="T137" s="3" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="W137" s="3" t="s">
         <v>356</v>
@@ -5709,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="W138" s="3" t="s">
         <v>356</v>
@@ -5720,16 +5776,16 @@
         <v>52</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="H139" s="3">
         <v>200</v>
@@ -5768,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="T139" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="W139" s="3" t="s">
         <v>356</v>
@@ -5782,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="T140" s="3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="W140" s="3" t="s">
         <v>356</v>
@@ -5796,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="W141" s="3" t="s">
         <v>356</v>
@@ -5807,22 +5863,22 @@
         <v>52</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H142" s="3">
         <v>200</v>
       </c>
       <c r="I142" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="3">
         <v>0.1</v>
@@ -5855,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="T142" s="3" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="W142" s="3" t="s">
         <v>356</v>
@@ -5869,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="T143" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="W143" s="3" t="s">
         <v>356</v>
@@ -5883,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="W144" s="3" t="s">
         <v>356</v>
@@ -5894,22 +5950,22 @@
         <v>52</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H145" s="3">
         <v>200</v>
       </c>
       <c r="I145" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="3">
         <v>0.1</v>
@@ -5942,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="W145" s="3" t="s">
         <v>356</v>
@@ -5956,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="W146" s="3" t="s">
         <v>356</v>
@@ -5970,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="W147" s="3" t="s">
         <v>356</v>
@@ -5981,22 +6037,22 @@
         <v>52</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="H148" s="3">
         <v>200</v>
       </c>
       <c r="I148" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" s="3">
         <v>0.1</v>
@@ -6029,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="W148" s="3" t="s">
         <v>356</v>
@@ -6043,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="W149" s="3" t="s">
         <v>356</v>
@@ -6057,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="W150" s="3" t="s">
         <v>356</v>
@@ -6068,16 +6124,16 @@
         <v>52</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H151" s="3">
         <v>200</v>
@@ -6116,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="T151" s="3" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="W151" s="3" t="s">
         <v>356</v>
@@ -6130,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="T152" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="W152" s="3" t="s">
         <v>356</v>
@@ -6144,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="T153" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="W153" s="3" t="s">
         <v>356</v>
@@ -6155,16 +6211,16 @@
         <v>52</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="H154" s="3">
         <v>200</v>
@@ -6203,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="W154" s="3" t="s">
         <v>356</v>
@@ -6217,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="W155" s="3" t="s">
         <v>356</v>
@@ -6231,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="T156" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="W156" s="3" t="s">
         <v>356</v>
@@ -6242,16 +6298,16 @@
         <v>52</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H157" s="3">
         <v>200</v>
@@ -6290,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="T157" s="3" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="W157" s="3" t="s">
         <v>356</v>
@@ -6304,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="T158" s="3" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="W158" s="3" t="s">
         <v>356</v>
@@ -6318,9 +6374,270 @@
         <v>0</v>
       </c>
       <c r="T159" t="s">
+        <v>329</v>
+      </c>
+      <c r="W159" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H160" s="3">
+        <v>200</v>
+      </c>
+      <c r="I160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K160" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L160" s="3">
+        <v>1</v>
+      </c>
+      <c r="M160" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N160" s="3">
+        <v>1</v>
+      </c>
+      <c r="O160" s="3">
+        <v>1</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S160" s="3">
+        <v>0</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="W160" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="161" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R161" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S161" s="3">
+        <v>0</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="W161" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R162" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S162" s="3">
+        <v>0</v>
+      </c>
+      <c r="T162" t="s">
+        <v>336</v>
+      </c>
+      <c r="W162" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H163" s="3">
+        <v>200</v>
+      </c>
+      <c r="I163" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L163" s="3">
+        <v>1</v>
+      </c>
+      <c r="M163" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N163" s="3">
+        <v>1</v>
+      </c>
+      <c r="O163" s="3">
+        <v>1</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R163" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S163" s="3">
+        <v>0</v>
+      </c>
+      <c r="T163" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="W163" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R164" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S164" s="3">
+        <v>0</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="165" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R165" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S165" s="3">
+        <v>0</v>
+      </c>
+      <c r="T165" t="s">
+        <v>343</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="166" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H166" s="3">
+        <v>200</v>
+      </c>
+      <c r="I166" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K166" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L166" s="3">
+        <v>1</v>
+      </c>
+      <c r="M166" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N166" s="3">
+        <v>1</v>
+      </c>
+      <c r="O166" s="3">
+        <v>1</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S166" s="3">
+        <v>0</v>
+      </c>
+      <c r="T166" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="W166" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R167" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S167" s="3">
+        <v>0</v>
+      </c>
+      <c r="T167" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="W167" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="168" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R168" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S168" s="3">
+        <v>0</v>
+      </c>
+      <c r="T168" t="s">
         <v>350</v>
       </c>
-      <c r="W159" s="3" t="s">
+      <c r="W168" s="3" t="s">
         <v>356</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE2CAD-8441-43D4-B71F-65943ED98A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697BC38-409B-4055-B8B3-9C9585C76EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1645,8 +1645,8 @@
   <dimension ref="A1:AH168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="6" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1665,8 @@
     <col min="13" max="13" width="19.25" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
-    <col min="16" max="18" width="9" style="3" customWidth="1"/>
+    <col min="16" max="17" width="9" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
     <col min="20" max="20" width="19.5" style="3" customWidth="1"/>
     <col min="21" max="21" width="7" style="3" customWidth="1"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A256F-6EF8-4CD8-860D-397FD518A00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6203296-1FB4-4211-ACCF-4D0A77B2FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="419">
   <si>
     <t>##var</t>
   </si>
@@ -1175,6 +1176,188 @@
   </si>
   <si>
     <t>BuffAdd_FireSea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Hell</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对静默</t>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Hell</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletOnHit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AttackHitPos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TimeBarrier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_TimeBarrier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TimeBarrier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_TimeBarrier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_BreakArmor_Hit_Floor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_IceBind_Hit_Floor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_TimeBarrier_Hit_Floor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1328,7 +1511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1350,6 +1533,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1671,39 +1863,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH185"/>
+  <dimension ref="A1:AH175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T186" sqref="T186"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W171" sqref="W171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="16.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="16.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="3" customWidth="1"/>
+    <col min="12" max="13" width="16.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
     <col min="16" max="17" width="9" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="3" customWidth="1"/>
     <col min="21" max="21" width="7" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="25.77734375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.75" style="3" customWidth="1"/>
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1755,14 +1947,14 @@
       <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
@@ -1775,7 +1967,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +2017,7 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +2052,7 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1912,14 +2104,14 @@
       <c r="Q4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
@@ -1932,7 +2124,7 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1972,7 +2164,7 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -2050,7 +2242,7 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>326</v>
       </c>
@@ -2109,7 +2301,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
       <c r="R8" s="3" t="s">
         <v>58</v>
@@ -2124,7 +2316,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
       <c r="R9" s="3" t="s">
         <v>58</v>
@@ -2139,7 +2331,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
       <c r="R10" s="3" t="s">
         <v>61</v>
@@ -2154,7 +2346,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>327</v>
       </c>
@@ -2213,7 +2405,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R12" s="3" t="s">
         <v>58</v>
       </c>
@@ -2227,7 +2419,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R13" s="3" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +2433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2255,7 +2447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>328</v>
       </c>
@@ -2314,7 +2506,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="R16" s="3" t="s">
         <v>58</v>
@@ -2329,7 +2521,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
       <c r="R17" s="3" t="s">
         <v>58</v>
@@ -2344,7 +2536,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C18" s="7"/>
       <c r="R18" s="3" t="s">
         <v>61</v>
@@ -2359,7 +2551,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>329</v>
       </c>
@@ -2418,7 +2610,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="R21" s="3" t="s">
         <v>58</v>
@@ -2433,7 +2625,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
       <c r="R22" s="3" t="s">
         <v>58</v>
@@ -2448,7 +2640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
       <c r="R23" s="3" t="s">
         <v>61</v>
@@ -2463,7 +2655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>330</v>
       </c>
@@ -2522,7 +2714,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C25" s="7"/>
       <c r="R25" s="3" t="s">
         <v>58</v>
@@ -2537,7 +2729,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C26" s="7"/>
       <c r="R26" s="3" t="s">
         <v>58</v>
@@ -2552,7 +2744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="R27" s="3" t="s">
         <v>61</v>
@@ -2567,7 +2759,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>331</v>
       </c>
@@ -2626,7 +2818,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="R29" s="3" t="s">
         <v>58</v>
@@ -2641,7 +2833,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="R30" s="3" t="s">
         <v>58</v>
@@ -2656,7 +2848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="R31" s="3" t="s">
         <v>61</v>
@@ -2671,7 +2863,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>332</v>
       </c>
@@ -2730,7 +2922,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
       <c r="R33" s="3" t="s">
         <v>58</v>
@@ -2745,7 +2937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>333</v>
       </c>
@@ -2804,7 +2996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R35" s="3" t="s">
         <v>58</v>
       </c>
@@ -2818,7 +3010,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R36" s="3" t="s">
         <v>58</v>
       </c>
@@ -2832,7 +3024,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>334</v>
       </c>
@@ -2891,7 +3083,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R38" s="3" t="s">
         <v>58</v>
       </c>
@@ -2905,7 +3097,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R39" s="3" t="s">
         <v>58</v>
       </c>
@@ -2919,7 +3111,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>335</v>
       </c>
@@ -2978,7 +3170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R41" s="3" t="s">
         <v>58</v>
       </c>
@@ -2992,7 +3184,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R42" s="3" t="s">
         <v>58</v>
       </c>
@@ -3006,7 +3198,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>336</v>
       </c>
@@ -3065,7 +3257,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R44" s="3" t="s">
         <v>58</v>
       </c>
@@ -3079,7 +3271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R45" s="3" t="s">
         <v>58</v>
       </c>
@@ -3093,7 +3285,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>337</v>
       </c>
@@ -3152,7 +3344,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R47" s="3" t="s">
         <v>58</v>
       </c>
@@ -3166,7 +3358,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R48" s="3" t="s">
         <v>58</v>
       </c>
@@ -3180,7 +3372,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>338</v>
       </c>
@@ -3239,7 +3431,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R50" s="3" t="s">
         <v>58</v>
       </c>
@@ -3253,7 +3445,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R51" s="3" t="s">
         <v>58</v>
       </c>
@@ -3267,7 +3459,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>339</v>
       </c>
@@ -3326,7 +3518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R53" s="3" t="s">
         <v>58</v>
       </c>
@@ -3340,7 +3532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R54" s="3" t="s">
         <v>58</v>
       </c>
@@ -3354,7 +3546,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>340</v>
       </c>
@@ -3413,7 +3605,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R56" s="3" t="s">
         <v>58</v>
       </c>
@@ -3427,7 +3619,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R57" s="3" t="s">
         <v>58</v>
       </c>
@@ -3441,7 +3633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>341</v>
       </c>
@@ -3500,7 +3692,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R59" s="3" t="s">
         <v>58</v>
       </c>
@@ -3514,7 +3706,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R60" s="3" t="s">
         <v>58</v>
       </c>
@@ -3528,7 +3720,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>342</v>
       </c>
@@ -3587,7 +3779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R62" s="3" t="s">
         <v>58</v>
       </c>
@@ -3601,7 +3793,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R63" s="3" t="s">
         <v>58</v>
       </c>
@@ -3615,7 +3807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>343</v>
       </c>
@@ -3674,7 +3866,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R65" s="3" t="s">
         <v>58</v>
       </c>
@@ -3688,7 +3880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R66" s="3" t="s">
         <v>58</v>
       </c>
@@ -3702,7 +3894,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>344</v>
       </c>
@@ -3761,7 +3953,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R68" s="3" t="s">
         <v>58</v>
       </c>
@@ -3775,7 +3967,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R69" s="3" t="s">
         <v>58</v>
       </c>
@@ -3789,7 +3981,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>345</v>
       </c>
@@ -3848,7 +4040,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R71" s="1" t="s">
         <v>58</v>
       </c>
@@ -3862,7 +4054,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R72" s="1" t="s">
         <v>58</v>
       </c>
@@ -3876,7 +4068,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>346</v>
       </c>
@@ -3935,7 +4127,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R74" s="1" t="s">
         <v>58</v>
       </c>
@@ -3949,7 +4141,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R75" s="1" t="s">
         <v>58</v>
       </c>
@@ -3963,7 +4155,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>347</v>
       </c>
@@ -4022,7 +4214,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R77" s="1" t="s">
         <v>58</v>
       </c>
@@ -4036,7 +4228,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R78" s="1" t="s">
         <v>58</v>
       </c>
@@ -4050,7 +4242,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>126</v>
       </c>
@@ -4109,7 +4301,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R80" s="3" t="s">
         <v>58</v>
       </c>
@@ -4123,7 +4315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R81" s="3" t="s">
         <v>58</v>
       </c>
@@ -4137,7 +4329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>132</v>
       </c>
@@ -4196,7 +4388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R83" s="3" t="s">
         <v>58</v>
       </c>
@@ -4210,7 +4402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R84" s="3" t="s">
         <v>58</v>
       </c>
@@ -4224,7 +4416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>138</v>
       </c>
@@ -4283,7 +4475,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R86" s="3" t="s">
         <v>58</v>
       </c>
@@ -4297,7 +4489,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R87" s="3" t="s">
         <v>58</v>
       </c>
@@ -4311,7 +4503,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>144</v>
       </c>
@@ -4370,7 +4562,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R89" s="3" t="s">
         <v>58</v>
       </c>
@@ -4384,7 +4576,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R90" s="3" t="s">
         <v>58</v>
       </c>
@@ -4398,7 +4590,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>150</v>
       </c>
@@ -4457,7 +4649,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R92" s="3" t="s">
         <v>58</v>
       </c>
@@ -4471,7 +4663,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R93" s="3" t="s">
         <v>58</v>
       </c>
@@ -4485,7 +4677,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>156</v>
       </c>
@@ -4544,7 +4736,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R95" s="3" t="s">
         <v>58</v>
       </c>
@@ -4558,7 +4750,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R96" s="3" t="s">
         <v>58</v>
       </c>
@@ -4572,7 +4764,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>162</v>
       </c>
@@ -4631,7 +4823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R98" s="3" t="s">
         <v>58</v>
       </c>
@@ -4645,7 +4837,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R99" s="3" t="s">
         <v>58</v>
       </c>
@@ -4659,7 +4851,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>168</v>
       </c>
@@ -4718,7 +4910,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R101" s="3" t="s">
         <v>58</v>
       </c>
@@ -4732,7 +4924,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R102" s="3" t="s">
         <v>58</v>
       </c>
@@ -4746,7 +4938,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>174</v>
       </c>
@@ -4805,7 +4997,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R104" s="3" t="s">
         <v>58</v>
       </c>
@@ -4819,7 +5011,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R105" s="3" t="s">
         <v>58</v>
       </c>
@@ -4833,7 +5025,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>180</v>
       </c>
@@ -4892,7 +5084,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R107" s="3" t="s">
         <v>58</v>
       </c>
@@ -4906,7 +5098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R108" s="3" t="s">
         <v>58</v>
       </c>
@@ -4920,7 +5112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>186</v>
       </c>
@@ -4979,7 +5171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R110" s="3" t="s">
         <v>58</v>
       </c>
@@ -4993,7 +5185,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R111" s="3" t="s">
         <v>58</v>
       </c>
@@ -5007,7 +5199,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>192</v>
       </c>
@@ -5066,7 +5258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R113" s="3" t="s">
         <v>58</v>
       </c>
@@ -5080,7 +5272,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R114" s="3" t="s">
         <v>58</v>
       </c>
@@ -5094,7 +5286,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>196</v>
       </c>
@@ -5153,7 +5345,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R116" s="3" t="s">
         <v>58</v>
       </c>
@@ -5167,7 +5359,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R117" s="3" t="s">
         <v>58</v>
       </c>
@@ -5181,7 +5373,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>202</v>
       </c>
@@ -5240,7 +5432,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R119" s="3" t="s">
         <v>58</v>
       </c>
@@ -5254,7 +5446,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R120" s="3" t="s">
         <v>58</v>
       </c>
@@ -5268,7 +5460,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>208</v>
       </c>
@@ -5327,7 +5519,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R122" s="3" t="s">
         <v>58</v>
       </c>
@@ -5341,7 +5533,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R123" s="3" t="s">
         <v>58</v>
       </c>
@@ -5355,7 +5547,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>214</v>
       </c>
@@ -5414,7 +5606,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R125" s="3" t="s">
         <v>58</v>
       </c>
@@ -5428,7 +5620,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R126" s="3" t="s">
         <v>58</v>
       </c>
@@ -5442,7 +5634,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>220</v>
       </c>
@@ -5501,7 +5693,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R128" s="3" t="s">
         <v>58</v>
       </c>
@@ -5515,7 +5707,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R129" s="3" t="s">
         <v>58</v>
       </c>
@@ -5529,7 +5721,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>226</v>
       </c>
@@ -5588,7 +5780,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R131" s="3" t="s">
         <v>58</v>
       </c>
@@ -5602,7 +5794,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R132" s="3" t="s">
         <v>58</v>
       </c>
@@ -5616,7 +5808,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>232</v>
       </c>
@@ -5675,7 +5867,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R134" s="3" t="s">
         <v>58</v>
       </c>
@@ -5689,7 +5881,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R135" s="3" t="s">
         <v>58</v>
       </c>
@@ -5703,7 +5895,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>238</v>
       </c>
@@ -5762,7 +5954,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R137" s="3" t="s">
         <v>58</v>
       </c>
@@ -5776,7 +5968,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R138" s="3" t="s">
         <v>58</v>
       </c>
@@ -5790,7 +5982,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>244</v>
       </c>
@@ -5849,7 +6041,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R140" s="3" t="s">
         <v>58</v>
       </c>
@@ -5863,7 +6055,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R141" s="3" t="s">
         <v>58</v>
       </c>
@@ -5877,7 +6069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>250</v>
       </c>
@@ -5936,7 +6128,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R143" s="3" t="s">
         <v>58</v>
       </c>
@@ -5950,7 +6142,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R144" s="3" t="s">
         <v>58</v>
       </c>
@@ -5964,7 +6156,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>256</v>
       </c>
@@ -6023,7 +6215,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R146" s="3" t="s">
         <v>58</v>
       </c>
@@ -6037,7 +6229,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R147" s="3" t="s">
         <v>58</v>
       </c>
@@ -6051,7 +6243,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>262</v>
       </c>
@@ -6110,7 +6302,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R149" s="3" t="s">
         <v>58</v>
       </c>
@@ -6124,7 +6316,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R150" s="3" t="s">
         <v>58</v>
       </c>
@@ -6138,7 +6330,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>268</v>
       </c>
@@ -6197,7 +6389,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R152" s="3" t="s">
         <v>58</v>
       </c>
@@ -6211,7 +6403,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R153" s="3" t="s">
         <v>58</v>
       </c>
@@ -6225,7 +6417,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
         <v>274</v>
       </c>
@@ -6284,7 +6476,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R155" s="3" t="s">
         <v>58</v>
       </c>
@@ -6298,7 +6490,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R156" s="3" t="s">
         <v>58</v>
       </c>
@@ -6312,7 +6504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
         <v>280</v>
       </c>
@@ -6371,7 +6563,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R158" s="3" t="s">
         <v>58</v>
       </c>
@@ -6385,7 +6577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R159" s="3" t="s">
         <v>58</v>
       </c>
@@ -6399,7 +6591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>286</v>
       </c>
@@ -6458,7 +6650,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R161" s="3" t="s">
         <v>58</v>
       </c>
@@ -6472,7 +6664,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R162" s="3" t="s">
         <v>58</v>
       </c>
@@ -6486,7 +6678,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
         <v>292</v>
       </c>
@@ -6545,7 +6737,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R164" s="3" t="s">
         <v>58</v>
       </c>
@@ -6559,7 +6751,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R165" s="3" t="s">
         <v>58</v>
       </c>
@@ -6573,7 +6765,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
         <v>298</v>
       </c>
@@ -6632,7 +6824,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R167" s="3" t="s">
         <v>58</v>
       </c>
@@ -6646,7 +6838,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R168" s="3" t="s">
         <v>58</v>
       </c>
@@ -6660,7 +6852,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B170" s="12" t="s">
         <v>348</v>
       </c>
@@ -6719,7 +6911,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R171" s="3" t="s">
         <v>58</v>
       </c>
@@ -6733,7 +6925,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R172" s="3" t="s">
         <v>58</v>
       </c>
@@ -6747,7 +6939,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B173" s="12" t="s">
         <v>351</v>
       </c>
@@ -6806,7 +6998,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R174" s="3" t="s">
         <v>58</v>
       </c>
@@ -6820,7 +7012,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R175" s="3" t="s">
         <v>58</v>
       </c>
@@ -6832,127 +7024,6 @@
       </c>
       <c r="W175" s="3" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B181" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F181" s="3">
-        <v>200</v>
-      </c>
-      <c r="G181" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I181" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J181" s="3">
-        <v>1</v>
-      </c>
-      <c r="K181" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L181" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M181" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N181" s="3">
-        <v>1</v>
-      </c>
-      <c r="O181" s="3">
-        <v>1</v>
-      </c>
-      <c r="P181" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q181" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R181" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="S181" s="3">
-        <v>0</v>
-      </c>
-      <c r="T181" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="W181" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T183"/>
-    </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B185" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F185" s="3">
-        <v>200</v>
-      </c>
-      <c r="G185" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H185" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I185" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J185" s="3">
-        <v>1</v>
-      </c>
-      <c r="K185" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L185" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M185" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N185" s="3">
-        <v>1</v>
-      </c>
-      <c r="O185" s="3">
-        <v>1</v>
-      </c>
-      <c r="P185" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q185" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R185" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="S185" s="3">
-        <v>0</v>
-      </c>
-      <c r="T185" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="W185" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6973,4 +7044,1276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3006A46-1C47-404F-8D70-348BDA7A9CF9}">
+  <dimension ref="A1:W30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="11" width="5.25" customWidth="1"/>
+    <col min="12" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="5.875" customWidth="1"/>
+    <col min="14" max="15" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
+    <col min="20" max="20" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
+    <col min="22" max="22" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="3">
+        <v>200</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="3">
+        <v>200</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="R4:W4"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6203296-1FB4-4211-ACCF-4D0A77B2FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09041889-26C9-48F9-B9C2-B541D8A568EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="446">
   <si>
     <t>##var</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>AttackArea_PlayerAoe2</t>
-  </si>
-  <si>
-    <t>EffectCreate_Cannon_Hit_2</t>
   </si>
   <si>
     <t>PlayAudio_HitTowerCannon2</t>
@@ -983,9 +980,6 @@
   </si>
   <si>
     <t>PlayAudio_HitTowerFire2</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerFire_Bullet3</t>
   </si>
   <si>
     <t>EffectCreate_TowerFire_Hit3</t>
@@ -1360,12 +1354,117 @@
     <t>EffectCreate_PlayerSkill_TimeBarrier_Hit_Floor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Bullet_Monster_Skull1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-骷髅1空子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_Monster_Skull1</t>
+  </si>
+  <si>
+    <t>CallActor_Skull</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Monster_FireSpirit2</t>
+  </si>
+  <si>
+    <t>AttackArea_Monster_FireSpirit2</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_FireSpirit3</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_FireSpirit3_EarthFire</t>
+  </si>
+  <si>
+    <t>FireBullet_Monster_FireSpirit3_EarthFire</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_Monster_FireSpirit3_EarthFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_EarthFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletOnHitPos</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-火精灵2-子弹</t>
+  </si>
+  <si>
+    <t>怪物-火精灵3-子弹</t>
+  </si>
+  <si>
+    <t>怪物-火精灵3-火海</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_Scorpid1</t>
+  </si>
+  <si>
+    <t>怪物-麻痹蝎1-子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Scorpid1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Scorpid1_Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_Monster_Scorpid1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Monster_Scorpid2</t>
+  </si>
+  <si>
+    <t>怪物-麻痹蝎2-子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTweenChgTarget_Monster_Scorpid2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Cannon_Hit_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Cannon_Hit_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮弹2-crit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Tower_Cannon_Bullet_2_Crit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe2_Crit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,6 +1507,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1561,7 +1667,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1863,33 +1979,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH175"/>
+  <dimension ref="A1:AH198"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W171" sqref="W171"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="16.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
-    <col min="16" max="17" width="9" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
     <col min="18" max="18" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.5" style="3" customWidth="1"/>
-    <col min="21" max="21" width="7" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.25" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9" style="3" customWidth="1"/>
     <col min="22" max="22" width="8.625" style="3" customWidth="1"/>
     <col min="23" max="23" width="25.75" style="3" customWidth="1"/>
     <col min="24" max="16384" width="9" style="3"/>
@@ -1930,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -2087,10 +2206,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>27</v>
@@ -2199,10 +2318,10 @@
         <v>43</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>44</v>
@@ -2244,7 +2363,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>52</v>
@@ -2298,7 +2417,7 @@
         <v>57</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -2313,7 +2432,7 @@
         <v>59</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -2328,7 +2447,7 @@
         <v>60</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -2343,12 +2462,12 @@
         <v>59</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>62</v>
@@ -2402,7 +2521,7 @@
         <v>59</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -2416,7 +2535,7 @@
         <v>59</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -2430,7 +2549,7 @@
         <v>59</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2444,12 +2563,12 @@
         <v>59</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>52</v>
@@ -2503,7 +2622,7 @@
         <v>57</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2518,7 +2637,7 @@
         <v>65</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
@@ -2533,7 +2652,7 @@
         <v>60</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
@@ -2548,12 +2667,12 @@
         <v>59</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>52</v>
@@ -2607,7 +2726,7 @@
         <v>57</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
@@ -2622,7 +2741,7 @@
         <v>65</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
@@ -2637,7 +2756,7 @@
         <v>60</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
@@ -2652,12 +2771,12 @@
         <v>59</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>67</v>
@@ -2711,7 +2830,7 @@
         <v>57</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
@@ -2726,7 +2845,7 @@
         <v>59</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
@@ -2741,7 +2860,7 @@
         <v>68</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
@@ -2756,12 +2875,12 @@
         <v>59</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>69</v>
@@ -2815,7 +2934,7 @@
         <v>57</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
@@ -2830,7 +2949,7 @@
         <v>59</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
@@ -2845,7 +2964,7 @@
         <v>70</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
@@ -2860,12 +2979,12 @@
         <v>59</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
@@ -2919,7 +3038,7 @@
         <v>57</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -2934,12 +3053,12 @@
         <v>72</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>73</v>
@@ -2993,7 +3112,7 @@
         <v>68</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
@@ -3007,7 +3126,7 @@
         <v>75</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
@@ -3021,12 +3140,12 @@
         <v>76</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>77</v>
@@ -3080,7 +3199,7 @@
         <v>79</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
@@ -3094,7 +3213,7 @@
         <v>80</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
@@ -3108,12 +3227,12 @@
         <v>76</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>81</v>
@@ -3167,7 +3286,7 @@
         <v>83</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
@@ -3181,7 +3300,7 @@
         <v>84</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
@@ -3195,12 +3314,12 @@
         <v>76</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>85</v>
@@ -3254,7 +3373,7 @@
         <v>70</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
@@ -3268,7 +3387,7 @@
         <v>87</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
@@ -3282,12 +3401,12 @@
         <v>88</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>89</v>
@@ -3341,7 +3460,7 @@
         <v>91</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
@@ -3352,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>92</v>
+        <v>441</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
@@ -3365,22 +3484,22 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" t="s">
-        <v>93</v>
+      <c r="T48" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>338</v>
+        <v>443</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -3425,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>96</v>
+        <v>444</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.2">
@@ -3439,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>97</v>
+        <v>440</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
@@ -3453,21 +3572,21 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3511,11 +3630,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" t="s">
-        <v>304</v>
+      <c r="T52" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.2">
@@ -3526,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
@@ -3540,21 +3659,21 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F55" s="3">
         <v>200</v>
@@ -3598,11 +3717,11 @@
       <c r="S55" s="3">
         <v>0</v>
       </c>
-      <c r="T55" s="12" t="s">
-        <v>305</v>
+      <c r="T55" t="s">
+        <v>303</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.2">
@@ -3613,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.2">
@@ -3627,21 +3746,21 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3686,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.2">
@@ -3700,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.2">
@@ -3714,21 +3833,21 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3772,11 +3891,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-      <c r="T61" s="3" t="s">
-        <v>113</v>
+      <c r="T61" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.2">
@@ -3787,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.2">
@@ -3801,21 +3920,21 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F64" s="3">
         <v>200</v>
@@ -3860,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.2">
@@ -3874,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.2">
@@ -3888,21 +4007,21 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F67" s="3">
         <v>200</v>
@@ -3947,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.2">
@@ -3961,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.2">
@@ -3975,38 +4094,38 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F70" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="3">
         <v>200</v>
       </c>
-      <c r="G70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-      <c r="K70" s="1">
+      <c r="G70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
         <v>0.1</v>
       </c>
       <c r="L70" s="3" t="b">
@@ -4015,68 +4134,68 @@
       <c r="M70" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N70" s="1">
-        <v>99</v>
-      </c>
-      <c r="O70" s="1">
-        <v>1</v>
-      </c>
-      <c r="P70" s="1" t="s">
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="Q70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>309</v>
+      <c r="R70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>124</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F73" s="1">
         <v>200</v>
@@ -4085,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="H73" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I73" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -4121,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4135,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4149,21 +4268,21 @@
         <v>0</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F76" s="1">
         <v>200</v>
@@ -4172,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I76" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -4208,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4222,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4236,38 +4355,38 @@
         <v>0</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F79" s="1">
         <v>200</v>
       </c>
-      <c r="G79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J79" s="3">
-        <v>1</v>
-      </c>
-      <c r="K79" s="3">
+      <c r="G79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
         <v>0.1</v>
       </c>
       <c r="L79" s="3" t="b">
@@ -4276,68 +4395,68 @@
       <c r="M79" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N79" s="3">
-        <v>1</v>
-      </c>
-      <c r="O79" s="3">
-        <v>1</v>
-      </c>
-      <c r="P79" s="3" t="s">
+      <c r="N79" s="1">
+        <v>99</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+      <c r="P79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="Q79" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R79" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S79" s="3">
-        <v>0</v>
-      </c>
-      <c r="T79" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="W79" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R80" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S80" s="3">
-        <v>0</v>
-      </c>
-      <c r="T80" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="W80" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" t="s">
-        <v>131</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>309</v>
+      <c r="R79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F82" s="3">
         <v>200</v>
@@ -4382,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.2">
@@ -4396,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.2">
@@ -4410,21 +4529,21 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F85" s="3">
         <v>200</v>
@@ -4469,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.2">
@@ -4483,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.2">
@@ -4497,21 +4616,21 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F88" s="3">
         <v>200</v>
@@ -4556,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.2">
@@ -4570,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.2">
@@ -4584,21 +4703,21 @@
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F91" s="3">
         <v>200</v>
@@ -4643,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.2">
@@ -4657,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.2">
@@ -4671,21 +4790,21 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F94" s="3">
         <v>200</v>
@@ -4730,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.2">
@@ -4744,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.2">
@@ -4758,21 +4877,21 @@
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F97" s="3">
         <v>200</v>
@@ -4817,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.2">
@@ -4831,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.2">
@@ -4845,21 +4964,21 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
@@ -4904,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.2">
@@ -4918,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.2">
@@ -4932,21 +5051,21 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F103" s="3">
         <v>200</v>
@@ -4991,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.2">
@@ -5005,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.2">
@@ -5019,21 +5138,21 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F106" s="3">
         <v>200</v>
@@ -5078,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.2">
@@ -5092,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.2">
@@ -5106,21 +5225,21 @@
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F109" s="3">
         <v>200</v>
@@ -5165,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.2">
@@ -5179,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.2">
@@ -5193,21 +5312,21 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F112" s="3">
         <v>200</v>
@@ -5252,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.2">
@@ -5266,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.2">
@@ -5280,21 +5399,21 @@
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F115" s="3">
         <v>200</v>
@@ -5339,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.2">
@@ -5353,10 +5472,10 @@
         <v>0</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.2">
@@ -5367,21 +5486,21 @@
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F118" s="3">
         <v>200</v>
@@ -5426,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.2">
@@ -5440,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.2">
@@ -5454,21 +5573,21 @@
         <v>0</v>
       </c>
       <c r="T120" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F121" s="3">
         <v>200</v>
@@ -5513,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.2">
@@ -5527,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.2">
@@ -5541,21 +5660,21 @@
         <v>0</v>
       </c>
       <c r="T123" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F124" s="3">
         <v>200</v>
@@ -5600,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.2">
@@ -5614,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.2">
@@ -5628,21 +5747,21 @@
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F127" s="3">
         <v>200</v>
@@ -5687,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.2">
@@ -5701,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.2">
@@ -5715,21 +5834,21 @@
         <v>0</v>
       </c>
       <c r="T129" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F130" s="3">
         <v>200</v>
@@ -5774,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="T130" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="W130" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.2">
@@ -5788,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="W131" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.2">
@@ -5802,21 +5921,21 @@
         <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="W132" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F133" s="3">
         <v>200</v>
@@ -5861,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="T133" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="W133" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.2">
@@ -5875,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="T134" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W134" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.2">
@@ -5889,21 +6008,21 @@
         <v>0</v>
       </c>
       <c r="T135" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="W135" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F136" s="3">
         <v>200</v>
@@ -5948,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="T136" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="W136" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.2">
@@ -5962,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="T137" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W137" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.2">
@@ -5976,21 +6095,21 @@
         <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="W138" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F139" s="3">
         <v>200</v>
@@ -6035,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="T139" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="W139" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.2">
@@ -6049,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="T140" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.2">
@@ -6063,27 +6182,27 @@
         <v>0</v>
       </c>
       <c r="T141" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="W141" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F142" s="3">
         <v>200</v>
       </c>
       <c r="G142" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3">
         <v>0.1</v>
@@ -6122,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="T142" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="W142" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.2">
@@ -6136,10 +6255,10 @@
         <v>0</v>
       </c>
       <c r="T143" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="W143" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.2">
@@ -6150,21 +6269,21 @@
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W144" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F145" s="3">
         <v>200</v>
@@ -6209,10 +6328,10 @@
         <v>0</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="W145" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.2">
@@ -6223,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="2:23" x14ac:dyDescent="0.2">
@@ -6237,114 +6356,75 @@
         <v>0</v>
       </c>
       <c r="T147" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F148" s="3">
-        <v>200</v>
-      </c>
-      <c r="G148" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I148" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J148" s="3">
-        <v>1</v>
-      </c>
-      <c r="K148" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L148" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M148" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N148" s="3">
-        <v>1</v>
-      </c>
-      <c r="O148" s="3">
-        <v>1</v>
-      </c>
-      <c r="P148" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q148" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R148" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S148" s="3">
         <v>0</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>265</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="U148"/>
+      <c r="V148"/>
       <c r="W148" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R149" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S149" s="3">
         <v>0</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>266</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="U149"/>
+      <c r="V149"/>
       <c r="W149" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="150" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R150" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S150" s="3">
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>267</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="U150"/>
+      <c r="V150"/>
       <c r="W150" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F151" s="3">
         <v>200</v>
       </c>
       <c r="G151" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="3">
         <v>0.1</v>
@@ -6383,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="T151" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="W151" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="2:23" x14ac:dyDescent="0.2">
@@ -6397,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="T152" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="2:23" x14ac:dyDescent="0.2">
@@ -6411,114 +6491,75 @@
         <v>0</v>
       </c>
       <c r="T153" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="W153" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F154" s="3">
-        <v>200</v>
-      </c>
-      <c r="G154" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I154" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J154" s="3">
-        <v>1</v>
-      </c>
-      <c r="K154" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L154" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M154" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N154" s="3">
-        <v>1</v>
-      </c>
-      <c r="O154" s="3">
-        <v>1</v>
-      </c>
-      <c r="P154" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q154" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R154" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S154" s="3">
         <v>0</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="U154"/>
+      <c r="V154"/>
       <c r="W154" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R155" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S155" s="3">
         <v>0</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>278</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="U155"/>
+      <c r="V155"/>
       <c r="W155" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R156" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S156" s="3">
         <v>0</v>
       </c>
       <c r="T156" t="s">
-        <v>279</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="U156"/>
+      <c r="V156"/>
       <c r="W156" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F157" s="3">
         <v>200</v>
       </c>
       <c r="G157" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" s="3">
         <v>0.1</v>
@@ -6557,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="T157" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="W157" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.2">
@@ -6571,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="T158" s="3" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="W158" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.2">
@@ -6585,108 +6626,69 @@
         <v>0</v>
       </c>
       <c r="T159" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="W159" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B160" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F160" s="3">
-        <v>200</v>
-      </c>
-      <c r="G160" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I160" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J160" s="3">
-        <v>1</v>
-      </c>
-      <c r="K160" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L160" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M160" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N160" s="3">
-        <v>1</v>
-      </c>
-      <c r="O160" s="3">
-        <v>1</v>
-      </c>
-      <c r="P160" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q160" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R160" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S160" s="3">
         <v>0</v>
       </c>
       <c r="T160" s="3" t="s">
-        <v>289</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="U160"/>
+      <c r="V160"/>
       <c r="W160" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R161" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S161" s="3">
         <v>0</v>
       </c>
       <c r="T161" s="3" t="s">
-        <v>290</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="U161"/>
+      <c r="V161"/>
       <c r="W161" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R162" s="3" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="S162" s="3">
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>291</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="U162"/>
+      <c r="V162"/>
       <c r="W162" s="3" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="F163" s="3">
         <v>200</v>
@@ -6731,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="T163" s="3" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="W163" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.2">
@@ -6745,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="T164" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="W164" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.2">
@@ -6759,21 +6761,21 @@
         <v>0</v>
       </c>
       <c r="T165" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="W165" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="F166" s="3">
         <v>200</v>
@@ -6818,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="T166" s="3" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="W166" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.2">
@@ -6832,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="T167" s="3" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="W167" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.2">
@@ -6846,58 +6848,72 @@
         <v>0</v>
       </c>
       <c r="T168" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="W168" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="169" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F169" s="3">
+        <v>200</v>
+      </c>
+      <c r="G169" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J169" s="3">
+        <v>1</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M169" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N169" s="3">
+        <v>1</v>
+      </c>
+      <c r="O169" s="3">
+        <v>1</v>
+      </c>
+      <c r="P169" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S169" s="3">
+        <v>0</v>
+      </c>
+      <c r="T169" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="W169" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B170" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F170" s="3">
-        <v>200</v>
-      </c>
-      <c r="G170" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I170" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J170" s="3">
-        <v>1</v>
-      </c>
-      <c r="K170" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L170" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M170" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N170" s="3">
-        <v>1</v>
-      </c>
-      <c r="O170" s="3">
-        <v>1</v>
-      </c>
-      <c r="P170" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q170" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R170" s="3" t="s">
         <v>58</v>
       </c>
@@ -6905,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="T170" s="3" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="W170" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="2:23" x14ac:dyDescent="0.2">
@@ -6918,73 +6934,73 @@
       <c r="S171" s="3">
         <v>0</v>
       </c>
-      <c r="T171" s="3" t="s">
-        <v>212</v>
+      <c r="T171" t="s">
+        <v>284</v>
       </c>
       <c r="W171" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F172" s="3">
+        <v>200</v>
+      </c>
+      <c r="G172" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J172" s="3">
+        <v>1</v>
+      </c>
+      <c r="K172" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M172" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" s="3">
+        <v>1</v>
+      </c>
+      <c r="O172" s="3">
+        <v>1</v>
+      </c>
+      <c r="P172" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="R172" s="3" t="s">
         <v>58</v>
       </c>
       <c r="S172" s="3">
         <v>0</v>
       </c>
-      <c r="T172" t="s">
-        <v>213</v>
+      <c r="T172" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="W172" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B173" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F173" s="3">
-        <v>200</v>
-      </c>
-      <c r="G173" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H173" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I173" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J173" s="3">
-        <v>1</v>
-      </c>
-      <c r="K173" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L173" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M173" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" s="3">
-        <v>1</v>
-      </c>
-      <c r="O173" s="3">
-        <v>1</v>
-      </c>
-      <c r="P173" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q173" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R173" s="3" t="s">
         <v>58</v>
       </c>
@@ -6992,10 +7008,10 @@
         <v>0</v>
       </c>
       <c r="T173" s="3" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="W173" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="2:23" x14ac:dyDescent="0.2">
@@ -7005,25 +7021,785 @@
       <c r="S174" s="3">
         <v>0</v>
       </c>
-      <c r="T174" s="3" t="s">
+      <c r="T174" t="s">
+        <v>290</v>
+      </c>
+      <c r="W174" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="175" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F175" s="3">
+        <v>200</v>
+      </c>
+      <c r="G175" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J175" s="3">
+        <v>1</v>
+      </c>
+      <c r="K175" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L175" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" s="3">
+        <v>1</v>
+      </c>
+      <c r="O175" s="3">
+        <v>1</v>
+      </c>
+      <c r="P175" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S175" s="3">
+        <v>0</v>
+      </c>
+      <c r="T175" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="176" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R176" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S176" s="3">
+        <v>0</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="W176" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="177" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R177" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S177" s="3">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>296</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F178" s="3">
+        <v>200</v>
+      </c>
+      <c r="G178" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J178" s="3">
+        <v>1</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L178" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M178" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" s="3">
+        <v>1</v>
+      </c>
+      <c r="O178" s="3">
+        <v>1</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S178" s="3">
+        <v>0</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="W178" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="179" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R179" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S179" s="3">
+        <v>0</v>
+      </c>
+      <c r="T179" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="W179" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R180" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S180" s="3">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>302</v>
+      </c>
+      <c r="W180" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B182" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" s="3">
+        <v>200</v>
+      </c>
+      <c r="G182" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J182" s="3">
+        <v>1</v>
+      </c>
+      <c r="K182" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L182" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N182" s="3">
+        <v>1</v>
+      </c>
+      <c r="O182" s="3">
+        <v>1</v>
+      </c>
+      <c r="P182" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q182" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S182" s="3">
+        <v>0</v>
+      </c>
+      <c r="T182" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="W182" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R183" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S183" s="3">
+        <v>0</v>
+      </c>
+      <c r="T183" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="W183" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="184" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R184" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S184" s="3">
+        <v>0</v>
+      </c>
+      <c r="T184" t="s">
+        <v>212</v>
+      </c>
+      <c r="W184" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="185" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B185" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F185" s="3">
+        <v>200</v>
+      </c>
+      <c r="G185" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J185" s="3">
+        <v>1</v>
+      </c>
+      <c r="K185" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L185" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" s="3">
+        <v>1</v>
+      </c>
+      <c r="O185" s="3">
+        <v>1</v>
+      </c>
+      <c r="P185" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S185" s="3">
+        <v>0</v>
+      </c>
+      <c r="T185" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="W185" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="186" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R186" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S186" s="3">
+        <v>0</v>
+      </c>
+      <c r="T186" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R187" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S187" s="3">
+        <v>0</v>
+      </c>
+      <c r="T187" t="s">
         <v>114</v>
       </c>
-      <c r="W174" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R175" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S175" s="3">
-        <v>0</v>
-      </c>
-      <c r="T175" t="s">
-        <v>115</v>
-      </c>
-      <c r="W175" s="3" t="s">
-        <v>309</v>
+      <c r="W187" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="188" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F188" s="3">
+        <v>200</v>
+      </c>
+      <c r="G188" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J188" s="3">
+        <v>1</v>
+      </c>
+      <c r="K188" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L188" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N188" s="3">
+        <v>1</v>
+      </c>
+      <c r="O188" s="3">
+        <v>1</v>
+      </c>
+      <c r="P188" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q188" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R188" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S188" s="3">
+        <v>0</v>
+      </c>
+      <c r="T188" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="W188" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="189" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B189" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F189" s="3">
+        <v>200</v>
+      </c>
+      <c r="G189" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J189" s="3">
+        <v>1</v>
+      </c>
+      <c r="K189" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L189" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M189" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N189" s="3">
+        <v>1</v>
+      </c>
+      <c r="O189" s="3">
+        <v>1</v>
+      </c>
+      <c r="P189" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q189" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" s="3">
+        <v>0</v>
+      </c>
+      <c r="T189" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="W189" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R190" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" s="3">
+        <v>0</v>
+      </c>
+      <c r="T190" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="W190" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B191" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F191" s="3">
+        <v>200</v>
+      </c>
+      <c r="G191" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J191" s="3">
+        <v>1</v>
+      </c>
+      <c r="K191" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L191" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N191" s="3">
+        <v>1</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1</v>
+      </c>
+      <c r="P191" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R191" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="S191" s="3">
+        <v>0</v>
+      </c>
+      <c r="T191" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="W191" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="192" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R192" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="S192" s="3">
+        <v>0</v>
+      </c>
+      <c r="T192" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="W192" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B193" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F193" s="3">
+        <v>200</v>
+      </c>
+      <c r="G193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J193" s="3">
+        <v>1</v>
+      </c>
+      <c r="K193" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N193" s="3">
+        <v>1</v>
+      </c>
+      <c r="O193" s="3">
+        <v>1</v>
+      </c>
+      <c r="P193" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q193" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R193" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="S193" s="3">
+        <v>0</v>
+      </c>
+      <c r="T193" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="W193" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="194" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B194" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F194" s="3">
+        <v>200</v>
+      </c>
+      <c r="G194" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J194" s="3">
+        <v>1</v>
+      </c>
+      <c r="K194" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L194" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" s="3">
+        <v>1</v>
+      </c>
+      <c r="O194" s="3">
+        <v>1</v>
+      </c>
+      <c r="P194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q194" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" s="3">
+        <v>0</v>
+      </c>
+      <c r="T194" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="W194" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="195" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B195" s="12"/>
+      <c r="C195" s="15"/>
+      <c r="R195" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" s="3">
+        <v>0</v>
+      </c>
+      <c r="T195" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="W195" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="196" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B196" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F196" s="3">
+        <v>200</v>
+      </c>
+      <c r="G196" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J196" s="3">
+        <v>1</v>
+      </c>
+      <c r="K196" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L196" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M196" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N196" s="3">
+        <v>3</v>
+      </c>
+      <c r="O196" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P196" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" s="3">
+        <v>0</v>
+      </c>
+      <c r="T196" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="W196" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R197" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" s="3">
+        <v>0</v>
+      </c>
+      <c r="T197" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R198" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S198" s="3">
+        <v>0</v>
+      </c>
+      <c r="T198" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="W198" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7032,13 +7808,16 @@
     <mergeCell ref="R4:W4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="T52">
+  <conditionalFormatting sqref="T55">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
+  <conditionalFormatting sqref="T61">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
+  <conditionalFormatting sqref="T193">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7050,8 +7829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3006A46-1C47-404F-8D70-348BDA7A9CF9}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7107,10 +7886,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -7234,10 +8013,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>27</v>
@@ -7324,10 +8103,10 @@
         <v>43</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>44</v>
@@ -7358,16 +8137,16 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -7406,16 +8185,16 @@
         <v>55</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -7434,16 +8213,16 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -7462,16 +8241,16 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -7490,30 +8269,30 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F11" s="3">
         <v>200</v>
@@ -7552,16 +8331,16 @@
         <v>55</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -7580,16 +8359,16 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>408</v>
-      </c>
       <c r="W12" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -7608,16 +8387,16 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -7636,30 +8415,30 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -7698,16 +8477,16 @@
         <v>55</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -7726,30 +8505,30 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -7788,30 +8567,30 @@
         <v>55</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
@@ -7850,30 +8629,30 @@
         <v>55</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F19" s="3">
         <v>200</v>
@@ -7912,30 +8691,30 @@
         <v>55</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S19" s="3">
         <v>0</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -7974,30 +8753,30 @@
         <v>55</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
@@ -8036,30 +8815,30 @@
         <v>55</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -8098,30 +8877,30 @@
         <v>55</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -8160,27 +8939,27 @@
         <v>55</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
@@ -8219,30 +8998,30 @@
         <v>55</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R27" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8251,13 +9030,13 @@
     <row r="29" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F30" s="3">
         <v>200</v>
@@ -8296,16 +9075,16 @@
         <v>55</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BulletConfig/BulletCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BulletConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09041889-26C9-48F9-B9C2-B541D8A568EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2CC86E-E1A1-4CA6-9BA6-332F71A1CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="454">
   <si>
     <t>##var</t>
   </si>
@@ -80,12 +80,6 @@
     <t>action_id</t>
   </si>
   <si>
-    <t>actionCondition1</t>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-  </si>
-  <si>
     <t>actionCallParam</t>
   </si>
   <si>
@@ -168,12 +162,6 @@
   </si>
   <si>
     <t>延迟多久后触发action</t>
-  </si>
-  <si>
-    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
-  </si>
-  <si>
-    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
   </si>
   <si>
     <t>对象选择器</t>
@@ -1457,6 +1445,54 @@
   </si>
   <si>
     <t>ResUnit_TowerFire_Bullet3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1SelectObj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2SelectObj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件1对象选择器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件2对象选择器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1607,6 +1643,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1617,7 +1684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1649,16 +1716,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1981,40 +2066,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="7" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.21875" style="3" customWidth="1"/>
     <col min="21" max="21" width="9" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="25.75" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="3"/>
+    <col min="22" max="22" width="8.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" style="16" customWidth="1"/>
+    <col min="25" max="25" width="25.21875" style="16" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="28.33203125" style="16" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2049,10 +2138,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -2066,18 +2155,18 @@
       <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
@@ -2086,7 +2175,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2116,18 +2205,26 @@
         <v>18</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="X2" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>449</v>
+      </c>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
@@ -2136,7 +2233,7 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2159,10 +2256,10 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="19"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
@@ -2171,70 +2268,70 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="Q4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
@@ -2243,14 +2340,14 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2271,10 +2368,10 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
@@ -2283,76 +2380,84 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="Q6" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="s">
-        <v>49</v>
+        <v>444</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>453</v>
+      </c>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
@@ -2361,15 +2466,15 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -2402,78 +2507,86 @@
         <v>1</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="R8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="R9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="R10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F11" s="3">
         <v>200</v>
@@ -2506,75 +2619,80 @@
         <v>1</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="W11" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R13" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -2607,78 +2725,83 @@
         <v>1</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="R16" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="R17" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="R18" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -2711,78 +2834,83 @@
         <v>1</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="R21" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X21"/>
+      <c r="Y21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="R22" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="R23" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -2815,78 +2943,84 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="R25" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="X25"/>
+      <c r="Y25" s="3"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="R26" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="R27" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F28" s="3">
         <v>200</v>
@@ -2919,78 +3053,86 @@
         <v>1</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="X28"/>
+      <c r="Y28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="R29" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="Y29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="R30" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X30"/>
+      <c r="Y30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="R31" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S31" s="3">
         <v>0</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
@@ -3023,48 +3165,50 @@
         <v>1</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="R33" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="Y33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3">
         <v>200</v>
@@ -3097,61 +3241,62 @@
         <v>1</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S34" s="3">
         <v>0</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R35" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R36" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F37" s="3">
         <v>200</v>
@@ -3184,61 +3329,64 @@
         <v>1</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="Y37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R38" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S38" s="3">
         <v>0</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R39" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S39" s="3">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F40" s="3">
         <v>200</v>
@@ -3271,61 +3419,61 @@
         <v>1</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S40" s="3">
         <v>0</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R41" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R42" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -3358,61 +3506,61 @@
         <v>1</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -3445,61 +3593,61 @@
         <v>1</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R47" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R48" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -3532,61 +3680,61 @@
         <v>1</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R50" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R51" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S51" s="3">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3619,61 +3767,61 @@
         <v>1</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>93</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S53" s="3">
-        <v>0</v>
-      </c>
-      <c r="T53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="W53" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
-        <v>97</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F55" s="3">
         <v>200</v>
@@ -3706,61 +3854,61 @@
         <v>1</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S55" s="3">
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R56" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S56" s="3">
         <v>0</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R57" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3793,61 +3941,61 @@
         <v>1</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R59" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R60" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3880,61 +4028,61 @@
         <v>1</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R62" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R63" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S63" s="3">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F64" s="3">
         <v>200</v>
@@ -3967,61 +4115,61 @@
         <v>1</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S64" s="3">
         <v>0</v>
       </c>
       <c r="T64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>110</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="W64" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R65" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S65" s="3">
-        <v>0</v>
-      </c>
-      <c r="T65" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="W65" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
-        <v>114</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F67" s="3">
         <v>200</v>
@@ -4054,61 +4202,61 @@
         <v>1</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S67" s="3">
         <v>0</v>
       </c>
       <c r="T67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>115</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="W67" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S68" s="3">
-        <v>0</v>
-      </c>
-      <c r="T68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="W68" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R69" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S69" s="3">
-        <v>0</v>
-      </c>
-      <c r="T69" t="s">
-        <v>119</v>
-      </c>
-      <c r="W69" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F70" s="3">
         <v>200</v>
@@ -4141,61 +4289,61 @@
         <v>1</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R71" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S71" s="3">
         <v>0</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R72" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F73" s="1">
         <v>200</v>
@@ -4228,61 +4376,73 @@
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+    </row>
+    <row r="74" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R74" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+    </row>
+    <row r="75" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R75" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+    </row>
+    <row r="76" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F76" s="1">
         <v>200</v>
@@ -4315,61 +4475,73 @@
         <v>1</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S76" s="1">
         <v>0</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="W76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+    </row>
+    <row r="77" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+    </row>
+    <row r="78" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+    </row>
+    <row r="79" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S77" s="1">
-        <v>0</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" s="1">
-        <v>0</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F79" s="1">
         <v>200</v>
@@ -4402,61 +4574,73 @@
         <v>1</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S79" s="1">
         <v>0</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+    </row>
+    <row r="80" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R80" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S80" s="1">
         <v>0</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+    </row>
+    <row r="81" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R81" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S81" s="1">
         <v>0</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F82" s="3">
         <v>200</v>
@@ -4489,61 +4673,61 @@
         <v>1</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S82" s="3">
         <v>0</v>
       </c>
       <c r="T82" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" t="s">
+        <v>126</v>
+      </c>
+      <c r="W84" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W82" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R83" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R84" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S84" s="3">
-        <v>0</v>
-      </c>
-      <c r="T84" t="s">
-        <v>130</v>
-      </c>
-      <c r="W84" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F85" s="3">
         <v>200</v>
@@ -4576,61 +4760,61 @@
         <v>1</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S85" s="3">
         <v>0</v>
       </c>
       <c r="T85" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W85" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W86" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>132</v>
+      </c>
+      <c r="W87" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W85" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R86" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S86" s="3">
-        <v>0</v>
-      </c>
-      <c r="T86" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="W86" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R87" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S87" s="3">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
-        <v>136</v>
-      </c>
-      <c r="W87" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F88" s="3">
         <v>200</v>
@@ -4663,61 +4847,61 @@
         <v>1</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S88" s="3">
         <v>0</v>
       </c>
       <c r="T88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S90" s="3">
+        <v>0</v>
+      </c>
+      <c r="T90" t="s">
+        <v>138</v>
+      </c>
+      <c r="W90" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="W88" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R89" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R90" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S90" s="3">
-        <v>0</v>
-      </c>
-      <c r="T90" t="s">
-        <v>142</v>
-      </c>
-      <c r="W90" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F91" s="3">
         <v>200</v>
@@ -4750,61 +4934,61 @@
         <v>1</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W92" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>144</v>
+      </c>
+      <c r="W93" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R92" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S92" s="3">
-        <v>0</v>
-      </c>
-      <c r="T92" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="W92" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R93" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S93" s="3">
-        <v>0</v>
-      </c>
-      <c r="T93" t="s">
-        <v>148</v>
-      </c>
-      <c r="W93" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F94" s="3">
         <v>200</v>
@@ -4837,61 +5021,61 @@
         <v>1</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S95" s="3">
+        <v>0</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="R96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" t="s">
+        <v>150</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R95" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S95" s="3">
-        <v>0</v>
-      </c>
-      <c r="T95" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="W95" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R96" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" t="s">
-        <v>154</v>
-      </c>
-      <c r="W96" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="F97" s="3">
         <v>200</v>
@@ -4924,61 +5108,61 @@
         <v>1</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S97" s="3">
         <v>0</v>
       </c>
       <c r="T97" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" t="s">
+        <v>156</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W97" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R98" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S98" s="3">
-        <v>0</v>
-      </c>
-      <c r="T98" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="W98" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R99" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S99" s="3">
-        <v>0</v>
-      </c>
-      <c r="T99" t="s">
-        <v>160</v>
-      </c>
-      <c r="W99" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
@@ -5011,61 +5195,61 @@
         <v>1</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" t="s">
+        <v>162</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R101" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R102" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" t="s">
-        <v>166</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F103" s="3">
         <v>200</v>
@@ -5098,61 +5282,61 @@
         <v>1</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S103" s="3">
         <v>0</v>
       </c>
       <c r="T103" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W103" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R104" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S104" s="3">
+        <v>0</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W104" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S105" s="3">
+        <v>0</v>
+      </c>
+      <c r="T105" t="s">
+        <v>168</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W103" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R104" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S104" s="3">
-        <v>0</v>
-      </c>
-      <c r="T104" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="W104" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R105" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S105" s="3">
-        <v>0</v>
-      </c>
-      <c r="T105" t="s">
-        <v>172</v>
-      </c>
-      <c r="W105" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="F106" s="3">
         <v>200</v>
@@ -5185,61 +5369,61 @@
         <v>1</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S106" s="3">
         <v>0</v>
       </c>
       <c r="T106" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R107" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S107" s="3">
+        <v>0</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W107" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R108" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S108" s="3">
+        <v>0</v>
+      </c>
+      <c r="T108" t="s">
+        <v>174</v>
+      </c>
+      <c r="W108" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W106" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R107" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S107" s="3">
-        <v>0</v>
-      </c>
-      <c r="T107" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="W107" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R108" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S108" s="3">
-        <v>0</v>
-      </c>
-      <c r="T108" t="s">
-        <v>178</v>
-      </c>
-      <c r="W108" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F109" s="3">
         <v>200</v>
@@ -5272,61 +5456,61 @@
         <v>1</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S109" s="3">
         <v>0</v>
       </c>
       <c r="T109" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="W109" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S110" s="3">
+        <v>0</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W110" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S111" s="3">
+        <v>0</v>
+      </c>
+      <c r="T111" t="s">
+        <v>180</v>
+      </c>
+      <c r="W111" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="W109" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R110" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S110" s="3">
-        <v>0</v>
-      </c>
-      <c r="T110" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="W110" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R111" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S111" s="3">
-        <v>0</v>
-      </c>
-      <c r="T111" t="s">
-        <v>184</v>
-      </c>
-      <c r="W111" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F112" s="3">
         <v>200</v>
@@ -5359,61 +5543,61 @@
         <v>1</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S112" s="3">
         <v>0</v>
       </c>
       <c r="T112" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="W112" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S113" s="3">
+        <v>0</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="W113" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R114" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S114" s="3">
+        <v>0</v>
+      </c>
+      <c r="T114" t="s">
+        <v>186</v>
+      </c>
+      <c r="W114" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="W112" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R113" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S113" s="3">
-        <v>0</v>
-      </c>
-      <c r="T113" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="W113" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R114" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S114" s="3">
-        <v>0</v>
-      </c>
-      <c r="T114" t="s">
-        <v>190</v>
-      </c>
-      <c r="W114" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="F115" s="3">
         <v>200</v>
@@ -5446,61 +5630,61 @@
         <v>1</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S115" s="3">
         <v>0</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R116" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S116" s="3">
         <v>0</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R117" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S117" s="3">
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F118" s="3">
         <v>200</v>
@@ -5533,61 +5717,61 @@
         <v>1</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S118" s="3">
         <v>0</v>
       </c>
       <c r="T118" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R119" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S119" s="3">
+        <v>0</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R120" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S120" s="3">
+        <v>0</v>
+      </c>
+      <c r="T120" t="s">
+        <v>196</v>
+      </c>
+      <c r="W120" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="W118" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R119" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S119" s="3">
-        <v>0</v>
-      </c>
-      <c r="T119" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="W119" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R120" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S120" s="3">
-        <v>0</v>
-      </c>
-      <c r="T120" t="s">
-        <v>200</v>
-      </c>
-      <c r="W120" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="F121" s="3">
         <v>200</v>
@@ -5620,61 +5804,61 @@
         <v>1</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S121" s="3">
         <v>0</v>
       </c>
       <c r="T121" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W121" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R122" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S122" s="3">
+        <v>0</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W122" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R123" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S123" s="3">
+        <v>0</v>
+      </c>
+      <c r="T123" t="s">
+        <v>202</v>
+      </c>
+      <c r="W123" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="W121" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R122" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S122" s="3">
-        <v>0</v>
-      </c>
-      <c r="T122" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="W122" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R123" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S123" s="3">
-        <v>0</v>
-      </c>
-      <c r="T123" t="s">
-        <v>206</v>
-      </c>
-      <c r="W123" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="F124" s="3">
         <v>200</v>
@@ -5707,61 +5891,61 @@
         <v>1</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S124" s="3">
         <v>0</v>
       </c>
       <c r="T124" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="W124" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S125" s="3">
+        <v>0</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="W125" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R126" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S126" s="3">
+        <v>0</v>
+      </c>
+      <c r="T126" t="s">
+        <v>208</v>
+      </c>
+      <c r="W126" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="W124" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R125" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S125" s="3">
-        <v>0</v>
-      </c>
-      <c r="T125" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="W125" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R126" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S126" s="3">
-        <v>0</v>
-      </c>
-      <c r="T126" t="s">
-        <v>212</v>
-      </c>
-      <c r="W126" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="F127" s="3">
         <v>200</v>
@@ -5794,61 +5978,61 @@
         <v>1</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S127" s="3">
         <v>0</v>
       </c>
       <c r="T127" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W127" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R128" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S128" s="3">
+        <v>0</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="W128" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R129" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S129" s="3">
+        <v>0</v>
+      </c>
+      <c r="T129" t="s">
+        <v>214</v>
+      </c>
+      <c r="W129" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="W127" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R128" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S128" s="3">
-        <v>0</v>
-      </c>
-      <c r="T128" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="W128" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R129" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S129" s="3">
-        <v>0</v>
-      </c>
-      <c r="T129" t="s">
-        <v>218</v>
-      </c>
-      <c r="W129" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B130" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F130" s="3">
         <v>200</v>
@@ -5881,61 +6065,61 @@
         <v>1</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S130" s="3">
         <v>0</v>
       </c>
       <c r="T130" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="W130" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R131" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S131" s="3">
+        <v>0</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="W131" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R132" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S132" s="3">
+        <v>0</v>
+      </c>
+      <c r="T132" t="s">
+        <v>220</v>
+      </c>
+      <c r="W132" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="W130" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R131" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S131" s="3">
-        <v>0</v>
-      </c>
-      <c r="T131" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="W131" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R132" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S132" s="3">
-        <v>0</v>
-      </c>
-      <c r="T132" t="s">
-        <v>224</v>
-      </c>
-      <c r="W132" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B133" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F133" s="3">
         <v>200</v>
@@ -5968,61 +6152,61 @@
         <v>1</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q133" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R133" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S133" s="3">
         <v>0</v>
       </c>
       <c r="T133" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="W133" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R134" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S134" s="3">
+        <v>0</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="W134" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R135" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S135" s="3">
+        <v>0</v>
+      </c>
+      <c r="T135" t="s">
+        <v>226</v>
+      </c>
+      <c r="W135" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="W133" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R134" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S134" s="3">
-        <v>0</v>
-      </c>
-      <c r="T134" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="W134" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R135" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S135" s="3">
-        <v>0</v>
-      </c>
-      <c r="T135" t="s">
-        <v>230</v>
-      </c>
-      <c r="W135" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B136" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F136" s="3">
         <v>200</v>
@@ -6055,61 +6239,61 @@
         <v>1</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S136" s="3">
         <v>0</v>
       </c>
       <c r="T136" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="W136" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R137" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S137" s="3">
+        <v>0</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="W137" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R138" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S138" s="3">
+        <v>0</v>
+      </c>
+      <c r="T138" t="s">
+        <v>232</v>
+      </c>
+      <c r="W138" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W136" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R137" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S137" s="3">
-        <v>0</v>
-      </c>
-      <c r="T137" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="W137" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R138" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S138" s="3">
-        <v>0</v>
-      </c>
-      <c r="T138" t="s">
-        <v>236</v>
-      </c>
-      <c r="W138" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B139" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F139" s="3">
         <v>200</v>
@@ -6142,61 +6326,61 @@
         <v>1</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R139" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S139" s="3">
         <v>0</v>
       </c>
       <c r="T139" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="W139" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R140" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S140" s="3">
+        <v>0</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="W140" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R141" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S141" s="3">
+        <v>0</v>
+      </c>
+      <c r="T141" t="s">
+        <v>238</v>
+      </c>
+      <c r="W141" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="W139" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R140" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S140" s="3">
-        <v>0</v>
-      </c>
-      <c r="T140" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="W140" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R141" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S141" s="3">
-        <v>0</v>
-      </c>
-      <c r="T141" t="s">
-        <v>242</v>
-      </c>
-      <c r="W141" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="F142" s="3">
         <v>200</v>
@@ -6229,61 +6413,61 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S142" s="3">
         <v>0</v>
       </c>
       <c r="T142" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="W142" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S143" s="3">
+        <v>0</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="W143" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R144" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S144" s="3">
+        <v>0</v>
+      </c>
+      <c r="T144" t="s">
+        <v>244</v>
+      </c>
+      <c r="W144" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="W142" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R143" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S143" s="3">
-        <v>0</v>
-      </c>
-      <c r="T143" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="W143" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R144" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S144" s="3">
-        <v>0</v>
-      </c>
-      <c r="T144" t="s">
-        <v>248</v>
-      </c>
-      <c r="W144" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="F145" s="3">
         <v>200</v>
@@ -6316,109 +6500,109 @@
         <v>1</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R145" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S145" s="3">
         <v>0</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="W145" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R146" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S146" s="3">
         <v>0</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R147" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S147" s="3">
         <v>0</v>
       </c>
       <c r="T147" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R148" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S148" s="3">
         <v>0</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="U148"/>
       <c r="V148"/>
       <c r="W148" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R149" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S149" s="3">
         <v>0</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="U149"/>
       <c r="V149"/>
       <c r="W149" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R150" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S150" s="3">
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U150"/>
       <c r="V150"/>
       <c r="W150" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F151" s="3">
         <v>200</v>
@@ -6451,109 +6635,109 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R151" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S151" s="3">
         <v>0</v>
       </c>
       <c r="T151" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="W151" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R152" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S152" s="3">
         <v>0</v>
       </c>
       <c r="T152" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R153" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S153" s="3">
         <v>0</v>
       </c>
       <c r="T153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="W153" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R154" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S154" s="3">
         <v>0</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U154"/>
       <c r="V154"/>
       <c r="W154" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R155" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S155" s="3">
         <v>0</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U155"/>
       <c r="V155"/>
       <c r="W155" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R156" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S156" s="3">
         <v>0</v>
       </c>
       <c r="T156" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="U156"/>
       <c r="V156"/>
       <c r="W156" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F157" s="3">
         <v>200</v>
@@ -6586,109 +6770,109 @@
         <v>1</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S157" s="3">
         <v>0</v>
       </c>
       <c r="T157" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W157" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R158" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S158" s="3">
         <v>0</v>
       </c>
       <c r="T158" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W158" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R159" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S159" s="3">
         <v>0</v>
       </c>
       <c r="T159" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W159" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R160" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S160" s="3">
         <v>0</v>
       </c>
       <c r="T160" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="U160"/>
       <c r="V160"/>
       <c r="W160" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R161" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S161" s="3">
         <v>0</v>
       </c>
       <c r="T161" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U161"/>
       <c r="V161"/>
       <c r="W161" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R162" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S162" s="3">
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="U162"/>
       <c r="V162"/>
       <c r="W162" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F163" s="3">
         <v>200</v>
@@ -6721,61 +6905,61 @@
         <v>1</v>
       </c>
       <c r="P163" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R163" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S163" s="3">
         <v>0</v>
       </c>
       <c r="T163" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="W163" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R164" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S164" s="3">
+        <v>0</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R165" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S165" s="3">
+        <v>0</v>
+      </c>
+      <c r="T165" t="s">
+        <v>268</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="W163" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R164" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S164" s="3">
-        <v>0</v>
-      </c>
-      <c r="T164" s="3" t="s">
+      <c r="E166" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="W164" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R165" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S165" s="3">
-        <v>0</v>
-      </c>
-      <c r="T165" t="s">
-        <v>272</v>
-      </c>
-      <c r="W165" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="F166" s="3">
         <v>200</v>
@@ -6808,61 +6992,61 @@
         <v>1</v>
       </c>
       <c r="P166" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R166" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S166" s="3">
         <v>0</v>
       </c>
       <c r="T166" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="W166" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R167" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S167" s="3">
+        <v>0</v>
+      </c>
+      <c r="T167" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="W167" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R168" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S168" s="3">
+        <v>0</v>
+      </c>
+      <c r="T168" t="s">
+        <v>274</v>
+      </c>
+      <c r="W168" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="W166" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R167" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S167" s="3">
-        <v>0</v>
-      </c>
-      <c r="T167" s="3" t="s">
+      <c r="E169" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="W167" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R168" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S168" s="3">
-        <v>0</v>
-      </c>
-      <c r="T168" t="s">
-        <v>278</v>
-      </c>
-      <c r="W168" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B169" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="F169" s="3">
         <v>200</v>
@@ -6895,61 +7079,61 @@
         <v>1</v>
       </c>
       <c r="P169" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R169" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S169" s="3">
         <v>0</v>
       </c>
       <c r="T169" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="W169" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R170" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S170" s="3">
+        <v>0</v>
+      </c>
+      <c r="T170" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="W170" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R171" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S171" s="3">
+        <v>0</v>
+      </c>
+      <c r="T171" t="s">
+        <v>280</v>
+      </c>
+      <c r="W171" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="W169" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R170" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S170" s="3">
-        <v>0</v>
-      </c>
-      <c r="T170" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="W170" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R171" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S171" s="3">
-        <v>0</v>
-      </c>
-      <c r="T171" t="s">
-        <v>284</v>
-      </c>
-      <c r="W171" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B172" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="F172" s="3">
         <v>200</v>
@@ -6982,61 +7166,61 @@
         <v>1</v>
       </c>
       <c r="P172" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R172" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S172" s="3">
         <v>0</v>
       </c>
       <c r="T172" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="W172" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R173" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S173" s="3">
+        <v>0</v>
+      </c>
+      <c r="T173" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="W173" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R174" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S174" s="3">
+        <v>0</v>
+      </c>
+      <c r="T174" t="s">
+        <v>286</v>
+      </c>
+      <c r="W174" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="W172" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R173" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S173" s="3">
-        <v>0</v>
-      </c>
-      <c r="T173" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="W173" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R174" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S174" s="3">
-        <v>0</v>
-      </c>
-      <c r="T174" t="s">
-        <v>290</v>
-      </c>
-      <c r="W174" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B175" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="F175" s="3">
         <v>200</v>
@@ -7069,61 +7253,61 @@
         <v>1</v>
       </c>
       <c r="P175" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R175" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S175" s="3">
         <v>0</v>
       </c>
       <c r="T175" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R176" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S176" s="3">
+        <v>0</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="W176" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R177" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S177" s="3">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>292</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="W175" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R176" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S176" s="3">
-        <v>0</v>
-      </c>
-      <c r="T176" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="W176" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R177" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S177" s="3">
-        <v>0</v>
-      </c>
-      <c r="T177" t="s">
-        <v>296</v>
-      </c>
-      <c r="W177" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B178" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="F178" s="3">
         <v>200</v>
@@ -7156,61 +7340,61 @@
         <v>1</v>
       </c>
       <c r="P178" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R178" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S178" s="3">
         <v>0</v>
       </c>
       <c r="T178" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="W178" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R179" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S179" s="3">
         <v>0</v>
       </c>
       <c r="T179" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="W179" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R180" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S180" s="3">
         <v>0</v>
       </c>
       <c r="T180" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="W180" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F182" s="3">
         <v>200</v>
@@ -7243,61 +7427,61 @@
         <v>1</v>
       </c>
       <c r="P182" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R182" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S182" s="3">
         <v>0</v>
       </c>
       <c r="T182" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R183" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S183" s="3">
         <v>0</v>
       </c>
       <c r="T183" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="W183" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R184" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S184" s="3">
         <v>0</v>
       </c>
       <c r="T184" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="W184" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F185" s="3">
         <v>200</v>
@@ -7330,61 +7514,61 @@
         <v>1</v>
       </c>
       <c r="P185" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S185" s="3">
         <v>0</v>
       </c>
       <c r="T185" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="W185" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R186" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S186" s="3">
         <v>0</v>
       </c>
       <c r="T186" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W186" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R187" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S187" s="3">
         <v>0</v>
       </c>
       <c r="T187" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W187" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F188" s="3">
         <v>200</v>
@@ -7417,33 +7601,33 @@
         <v>1</v>
       </c>
       <c r="P188" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R188" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S188" s="3">
         <v>0</v>
       </c>
       <c r="T188" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="W188" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F189" s="3">
         <v>200</v>
@@ -7476,47 +7660,47 @@
         <v>1</v>
       </c>
       <c r="P189" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S189" s="3">
         <v>0</v>
       </c>
       <c r="T189" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="W189" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R190" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S190" s="3">
         <v>0</v>
       </c>
       <c r="T190" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="W190" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="191" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B191" s="12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F191" s="3">
         <v>200</v>
@@ -7549,47 +7733,47 @@
         <v>1</v>
       </c>
       <c r="P191" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R191" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="S191" s="3">
         <v>0</v>
       </c>
       <c r="T191" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="W191" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R192" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="S192" s="3">
         <v>0</v>
       </c>
       <c r="T192" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="W192" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F193" s="3">
         <v>200</v>
@@ -7622,33 +7806,33 @@
         <v>1</v>
       </c>
       <c r="P193" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="S193" s="3">
         <v>0</v>
       </c>
       <c r="T193" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="W193" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B194" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="F194" s="3">
         <v>200</v>
@@ -7681,49 +7865,49 @@
         <v>1</v>
       </c>
       <c r="P194" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R194" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S194" s="3">
         <v>0</v>
       </c>
       <c r="T194" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="W194" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B195" s="12"/>
       <c r="C195" s="15"/>
       <c r="R195" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S195" s="3">
         <v>0</v>
       </c>
       <c r="T195" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="W195" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B196" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F196" s="3">
         <v>200</v>
@@ -7756,56 +7940,56 @@
         <v>0.1</v>
       </c>
       <c r="P196" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R196" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S196" s="3">
         <v>0</v>
       </c>
       <c r="T196" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="W196" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R197" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S197" s="3">
         <v>0</v>
       </c>
       <c r="T197" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R198" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S198" s="3">
+        <v>0</v>
+      </c>
+      <c r="T198" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="W197" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R198" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S198" s="3">
-        <v>0</v>
-      </c>
-      <c r="T198" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="W198" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="R4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="T55">
@@ -7827,31 +8011,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3006A46-1C47-404F-8D70-348BDA7A9CF9}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:W13"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="11" width="5.25" customWidth="1"/>
-    <col min="12" max="12" width="6.75" customWidth="1"/>
-    <col min="13" max="13" width="5.875" customWidth="1"/>
-    <col min="14" max="15" width="5.25" customWidth="1"/>
-    <col min="17" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
-    <col min="20" max="20" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" customWidth="1"/>
-    <col min="22" max="22" width="6.25" customWidth="1"/>
+    <col min="8" max="11" width="5.21875" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="15" width="5.21875" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" customWidth="1"/>
+    <col min="22" max="22" width="6.21875" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" style="16" customWidth="1"/>
+    <col min="25" max="25" width="25.21875" style="16" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="28.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7886,10 +8074,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -7903,16 +8091,20 @@
       <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7942,16 +8134,28 @@
         <v>18</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -7977,76 +8181,84 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="19"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="Q4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -8067,86 +8279,102 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="Q6" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="s">
-        <v>49</v>
+        <v>444</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -8179,25 +8407,27 @@
         <v>0.1</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="F8" s="3"/>
@@ -8213,19 +8443,22 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="F9" s="3"/>
@@ -8241,19 +8474,22 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="F10" s="3"/>
@@ -8269,30 +8505,30 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F11" s="3">
         <v>200</v>
@@ -8325,25 +8561,25 @@
         <v>0.1</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
       </c>
       <c r="T11" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="3"/>
@@ -8359,19 +8595,21 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="F13" s="3"/>
@@ -8387,19 +8625,22 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="F14" s="3"/>
@@ -8415,30 +8656,30 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -8471,25 +8712,25 @@
         <v>1</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="F16" s="3"/>
@@ -8505,30 +8746,32 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -8561,36 +8804,39 @@
         <v>1</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
@@ -8623,36 +8869,36 @@
         <v>1</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F19" s="3">
         <v>200</v>
@@ -8685,36 +8931,36 @@
         <v>1</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S19" s="3">
         <v>0</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -8747,36 +8993,38 @@
         <v>1</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
@@ -8809,36 +9057,39 @@
         <v>1</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X21"/>
+      <c r="Y21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -8871,36 +9122,36 @@
         <v>1</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W22" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>411</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -8933,33 +9184,40 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X25"/>
+      <c r="Y25" s="3"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
@@ -8992,51 +9250,64 @@
         <v>1</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+    </row>
+    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R27" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+    </row>
+    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T28"/>
-    </row>
-    <row r="29" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X28"/>
+      <c r="Z28" s="16"/>
+    </row>
+    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="16"/>
+      <c r="Z29" s="16"/>
+    </row>
+    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F30" s="3">
         <v>200</v>
@@ -9069,28 +9340,44 @@
         <v>1</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>357</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X30"/>
+      <c r="Z30" s="16"/>
+    </row>
+    <row r="33" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Y33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X34"/>
+    </row>
+    <row r="37" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Y37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="R4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
